--- a/10_Java/学习笔记_开发工具_IDEA.xlsx
+++ b/10_Java/学习笔记_开发工具_IDEA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="411">
   <si>
     <r>
       <rPr>
@@ -3137,6 +3137,26 @@
       </rPr>
       <t>可以跳转到抽象方法的实现</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注释或取消注释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + /</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩进或反缩进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shift + tab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3554,7 +3574,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3588,6 +3608,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3629,7 +3655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3732,6 +3758,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5663,7 +5690,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7062,14 +7089,34 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E3"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D2" s="50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" t="s">
+        <v>408</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>409</v>
+      </c>
+      <c r="E3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7079,8 +7126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A183" workbookViewId="0">
-      <selection activeCell="I200" sqref="I200"/>
+    <sheetView showGridLines="0" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/10_Java/学习笔记_开发工具_IDEA.xlsx
+++ b/10_Java/学习笔记_开发工具_IDEA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="512">
   <si>
     <r>
       <rPr>
@@ -3159,12 +3159,621 @@
     <t>Shift + tab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>一些常用的快捷键：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA中配置文件模板的添加方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.前言</t>
+  </si>
+  <si>
+    <t>在Mybatis中需要创建的配置文件有sqlMapconfig.xml，映射文件xxxMapper.xml，而这些文件在idea中并没有提供，每次创建都需要去找对应的模板，很麻烦。可以采用配置模板文件解决这种问题</t>
+  </si>
+  <si>
+    <t>2.配置模板文件步骤</t>
+  </si>
+  <si>
+    <t>2.1选择file--settings--搜索找到File and Code Templates,在Files点击加号，填写Name,Extension</t>
+  </si>
+  <si>
+    <t>然后在下面将模板代码粘贴进去</t>
+  </si>
+  <si>
+    <t>粘贴完成后apply--OK即可</t>
+  </si>
+  <si>
+    <t>2.2在上面配置完成后，重新new 时可以查看到刚刚配置好的文件，直接点击创建即可</t>
+  </si>
+  <si>
+    <t>Key Promoter X</t>
+  </si>
+  <si>
+    <t>IDEA插件系列 --- 快捷键神器！Key Promoter X</t>
+  </si>
+  <si>
+    <t>正所谓工欲善其事必先利其器，一款好的插件可以帮我们提升开发效率，或者提升使用IDEA的幸福感！</t>
+  </si>
+  <si>
+    <r>
+      <t>今天要推荐的第一款插件 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>Key Promoter X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> 。</t>
+    </r>
+  </si>
+  <si>
+    <t>相信很多新手甚至老手，对IDEA中的快捷键都不是很熟悉。经常就是鼠标各种点点点，所以这款插件非常适合刚接触IDEA的同学或者说你想更多的使用键盘来代替鼠标的点点操作。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>关于</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>IDEA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插件的安装，分为在线版、离线版。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>在线版安装在 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E6BB8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>file - setting - plugins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t> 里进行搜索即可</t>
+    </r>
+  </si>
+  <si>
+    <t>离线版安装可以按照下图选择所在的文件目录进行安装</t>
+  </si>
+  <si>
+    <t>在使用鼠标操作时，如果当前操作有对应的快捷键，那么IDEA就会进行弹窗现实，在右下角显示对应的快捷键。</t>
+  </si>
+  <si>
+    <r>
+      <t>比如安装好插件，我鼠标点开了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1E6BB8"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>。右下角就出现了对应快捷键</t>
+    </r>
+  </si>
+  <si>
+    <t>Chinese Language</t>
+  </si>
+  <si>
+    <t>汉化必备</t>
+  </si>
+  <si>
+    <t>One Dark theme</t>
+  </si>
+  <si>
+    <t>代码主题</t>
+  </si>
+  <si>
+    <r>
+      <t>Atom</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="15"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Material Icon</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标主题</t>
+  </si>
+  <si>
+    <t>Rainbow Brackets</t>
+  </si>
+  <si>
+    <t>多彩花开括号</t>
+  </si>
+  <si>
+    <t>Translation</t>
+  </si>
+  <si>
+    <t>翻译</t>
+  </si>
+  <si>
+    <t>Codata</t>
+  </si>
+  <si>
+    <t>Tabnine AI Code Competion</t>
+  </si>
+  <si>
+    <t>代码提示</t>
+  </si>
+  <si>
+    <t>any-rule</t>
+  </si>
+  <si>
+    <t>GenerateAllSetter</t>
+  </si>
+  <si>
+    <t>正则表达式</t>
+  </si>
+  <si>
+    <t>一键生成setter</t>
+  </si>
+  <si>
+    <t>GenerateSerialVersionUID</t>
+  </si>
+  <si>
+    <t>GsonFormtPlus</t>
+  </si>
+  <si>
+    <t>生成UUID</t>
+  </si>
+  <si>
+    <t>把 JSON 字符串直接实例化成类</t>
+  </si>
+  <si>
+    <t>Alibaba Java Coding Guidelines</t>
+  </si>
+  <si>
+    <t>阿里代码检查规范</t>
+  </si>
+  <si>
+    <t>Convert YAML and Properties File</t>
+  </si>
+  <si>
+    <t>YAML转properties</t>
+  </si>
+  <si>
+    <t>Properties to YAML Converter</t>
+  </si>
+  <si>
+    <t>properties转YAML</t>
+  </si>
+  <si>
+    <t>EditStarters</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拉取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555666"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>springboot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF555666"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>版本依赖</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Mybatis plugin</t>
+  </si>
+  <si>
+    <t>跳转mapper</t>
+  </si>
+  <si>
+    <t>Gitee</t>
+  </si>
+  <si>
+    <t>git码云</t>
+  </si>
+  <si>
+    <t>google-java-format</t>
+  </si>
+  <si>
+    <t>格式化Java源代码</t>
+  </si>
+  <si>
+    <t>JPA Buddy</t>
+  </si>
+  <si>
+    <t>jpa</t>
+  </si>
+  <si>
+    <t>maven-search</t>
+  </si>
+  <si>
+    <t>maven依赖搜索</t>
+  </si>
+  <si>
+    <t>Maven Helper</t>
+  </si>
+  <si>
+    <t>Swagger</t>
+  </si>
+  <si>
+    <t>一键生成API接口文档</t>
+  </si>
+  <si>
+    <t>Background Image Plus</t>
+  </si>
+  <si>
+    <t>把背景设置成你自己心仪的的图片</t>
+  </si>
+  <si>
+    <t>Mybatis Log Plugin</t>
+  </si>
+  <si>
+    <t>把Mybatis的脚本直接输出在console中</t>
+  </si>
+  <si>
+    <t>RestfulToolkit</t>
+  </si>
+  <si>
+    <r>
+      <t>一套 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RESTful 服务开发辅助工具集。</t>
+    </r>
+  </si>
+  <si>
+    <t>分析依赖冲突插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JRebel</t>
+  </si>
+  <si>
+    <t>热部署插件，让你在修改完代码后，不用再重新启动，很实用！但是，不是免费的，需要大家发挥下聪明才智自行百度破解！</t>
+  </si>
+  <si>
+    <t>CheckStyle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Java</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>代码格式规范</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SequenceDiagram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>自动生成序列图插件</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key promoter X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeMaker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>代码生成工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码注解插件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快捷键提示工具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonarLint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>代码质量检查工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JUnitGenerator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>单元测试测试生成工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Free Mybatis plugin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mybatis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GsonFormat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>转领域对象工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String Manipulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>字符串工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iedis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Redis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>可视化</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kubernetes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K8s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>工具</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rainbow Brackets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+      </rPr>
+      <t>彩虹颜色括号</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lombok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>IDEA</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="21"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>好用插件合集</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ctrl + H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有子类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alt + Enter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动导入类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="56">
+  <fonts count="75">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3573,6 +4182,137 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1E6BB8"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF555666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555666"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF4F4F4F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="等线"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="21"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -3655,7 +4395,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3759,6 +4499,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5324,6 +6109,121 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="http://img.jbzj.deiniu.com/file_images/article/202103/2021033014472550.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="781050" y="2762250"/>
+          <a:ext cx="9439275" cy="6810375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>170360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2" descr="http://img.jbzj.deiniu.com/file_images/article/202103/2021033014472551.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819149" y="10028735"/>
+          <a:ext cx="8220075" cy="7297239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -5690,7 +6590,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5750,10 +6650,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:L102"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5902,10 +6802,470 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
     </row>
+    <row r="50" spans="1:10" ht="27">
+      <c r="A50" s="55" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75">
+      <c r="B52" s="57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75">
+      <c r="B53" s="57" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75">
+      <c r="B54" s="57" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75">
+      <c r="B55" s="57" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75">
+      <c r="B56" s="56" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75">
+      <c r="B57" s="56" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="18">
+      <c r="B58" s="58" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75">
+      <c r="B59" s="57" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75">
+      <c r="B60" s="57" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="27">
+      <c r="A63" s="55" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="18.75">
+      <c r="B64" s="59" t="s">
+        <v>430</v>
+      </c>
+      <c r="J64" s="60" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="18.75">
+      <c r="B65" s="59" t="s">
+        <v>432</v>
+      </c>
+      <c r="J65" s="60" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="19.5">
+      <c r="B66" s="59" t="s">
+        <v>434</v>
+      </c>
+      <c r="J66" s="60" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="18.75">
+      <c r="B67" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="J67" s="60" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="18.75">
+      <c r="B68" s="59" t="s">
+        <v>438</v>
+      </c>
+      <c r="J68" s="60" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="18.75">
+      <c r="B69" s="59" t="s">
+        <v>440</v>
+      </c>
+      <c r="J69" s="60" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="18.75">
+      <c r="B70" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="J70" s="60" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="18.75">
+      <c r="B71" s="59" t="s">
+        <v>443</v>
+      </c>
+      <c r="J71" s="60" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="18.75">
+      <c r="B72" s="59" t="s">
+        <v>444</v>
+      </c>
+      <c r="J72" s="60" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="18.75">
+      <c r="B73" s="59" t="s">
+        <v>447</v>
+      </c>
+      <c r="J73" s="60" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="18.75">
+      <c r="B74" s="59" t="s">
+        <v>448</v>
+      </c>
+      <c r="J74" s="60" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="18.75">
+      <c r="B75" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="J75" s="60" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="18.75">
+      <c r="B76" s="59" t="s">
+        <v>453</v>
+      </c>
+      <c r="J76" s="60" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="18.75">
+      <c r="B77" s="59" t="s">
+        <v>455</v>
+      </c>
+      <c r="J77" s="60" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="18.75">
+      <c r="A78" s="61"/>
+      <c r="B78" s="59" t="s">
+        <v>457</v>
+      </c>
+      <c r="C78" s="21"/>
+      <c r="D78" s="21"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="21"/>
+      <c r="G78" s="21"/>
+      <c r="H78" s="21"/>
+      <c r="I78" s="21"/>
+      <c r="J78" s="62" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="18.75">
+      <c r="B79" s="59" t="s">
+        <v>459</v>
+      </c>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="62" t="s">
+        <v>460</v>
+      </c>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+    </row>
+    <row r="80" spans="1:12" ht="18.75">
+      <c r="B80" s="59" t="s">
+        <v>461</v>
+      </c>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="21"/>
+      <c r="G80" s="21"/>
+      <c r="H80" s="21"/>
+      <c r="I80" s="21"/>
+      <c r="J80" s="62" t="s">
+        <v>462</v>
+      </c>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+    </row>
+    <row r="81" spans="2:12" ht="18.75">
+      <c r="B81" s="59" t="s">
+        <v>463</v>
+      </c>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="62" t="s">
+        <v>464</v>
+      </c>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+    </row>
+    <row r="82" spans="2:12" ht="18.75">
+      <c r="B82" s="59" t="s">
+        <v>465</v>
+      </c>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="21"/>
+      <c r="G82" s="21"/>
+      <c r="H82" s="21"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="62" t="s">
+        <v>466</v>
+      </c>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+    </row>
+    <row r="83" spans="2:12" ht="18.75">
+      <c r="B83" s="59" t="s">
+        <v>467</v>
+      </c>
+      <c r="C83" s="21"/>
+      <c r="D83" s="21"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="62" t="s">
+        <v>468</v>
+      </c>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+    </row>
+    <row r="84" spans="2:12" ht="18.75">
+      <c r="B84" s="59" t="s">
+        <v>469</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+      <c r="G84" s="21"/>
+      <c r="H84" s="21"/>
+      <c r="I84" s="21"/>
+      <c r="J84" s="66" t="s">
+        <v>478</v>
+      </c>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+    </row>
+    <row r="85" spans="2:12" ht="18.75">
+      <c r="B85" s="59" t="s">
+        <v>470</v>
+      </c>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="62" t="s">
+        <v>471</v>
+      </c>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+    </row>
+    <row r="86" spans="2:12" ht="19.5">
+      <c r="B86" s="64" t="s">
+        <v>472</v>
+      </c>
+      <c r="C86" s="21"/>
+      <c r="D86" s="21"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="21"/>
+      <c r="H86" s="21"/>
+      <c r="I86" s="21"/>
+      <c r="J86" s="65" t="s">
+        <v>473</v>
+      </c>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+    </row>
+    <row r="87" spans="2:12" ht="19.5">
+      <c r="B87" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="J87" s="65" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="19.5">
+      <c r="B88" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="J88" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="19.5">
+      <c r="B89" s="63" t="s">
+        <v>479</v>
+      </c>
+      <c r="J89" s="65" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="19.5">
+      <c r="B90" s="64" t="s">
+        <v>481</v>
+      </c>
+      <c r="C90" s="64"/>
+      <c r="J90" s="65" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" ht="19.5">
+      <c r="B91" s="64" t="s">
+        <v>483</v>
+      </c>
+      <c r="C91" s="64"/>
+      <c r="J91" s="65" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" ht="19.5">
+      <c r="B92" s="64" t="s">
+        <v>485</v>
+      </c>
+      <c r="C92" s="64"/>
+      <c r="J92" s="67" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" ht="19.5">
+      <c r="B93" s="69" t="s">
+        <v>506</v>
+      </c>
+      <c r="C93" s="64"/>
+      <c r="J93" s="67" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" ht="19.5">
+      <c r="B94" s="64" t="s">
+        <v>486</v>
+      </c>
+      <c r="C94" s="64"/>
+      <c r="J94" s="65" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" ht="19.5">
+      <c r="B95" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="C95" s="64"/>
+      <c r="J95" s="65" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" ht="19.5">
+      <c r="B96" s="64" t="s">
+        <v>492</v>
+      </c>
+      <c r="C96" s="64"/>
+      <c r="J96" s="65" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="97" spans="2:10" ht="19.5">
+      <c r="B97" s="64" t="s">
+        <v>494</v>
+      </c>
+      <c r="C97" s="64"/>
+      <c r="J97" s="65" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="98" spans="2:10" ht="19.5">
+      <c r="B98" s="64" t="s">
+        <v>496</v>
+      </c>
+      <c r="C98" s="64"/>
+      <c r="J98" s="65" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="99" spans="2:10" ht="19.5">
+      <c r="B99" s="64" t="s">
+        <v>498</v>
+      </c>
+      <c r="C99" s="64"/>
+      <c r="J99" s="65" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="100" spans="2:10" ht="19.5">
+      <c r="B100" s="64" t="s">
+        <v>500</v>
+      </c>
+      <c r="C100" s="64"/>
+      <c r="J100" s="65" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="101" spans="2:10" ht="19.5">
+      <c r="B101" s="64" t="s">
+        <v>502</v>
+      </c>
+      <c r="C101" s="64"/>
+      <c r="J101" s="65" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="102" spans="2:10" ht="15.75">
+      <c r="B102" s="68" t="s">
+        <v>504</v>
+      </c>
+      <c r="J102" s="65" t="s">
+        <v>505</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5913,7 +7273,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U447"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A353" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A236" workbookViewId="0">
       <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
@@ -7089,36 +8449,106 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E3"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="1" spans="1:7" ht="23.25">
+      <c r="A1" s="51" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="B2" t="s">
         <v>406</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="E2" s="50" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="B3" t="s">
         <v>408</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="E3" s="50" t="s">
         <v>409</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="50"/>
+      <c r="G3" t="s">
         <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" t="s">
+        <v>509</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>508</v>
+      </c>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="F5" s="50"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="8" spans="1:7" ht="23.25">
+      <c r="A8" s="51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="21">
+      <c r="B9" s="53" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
+      <c r="B10" s="52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="21">
+      <c r="B11" s="53" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15">
+      <c r="B12" s="52" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
+      <c r="B13" s="52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
+      <c r="B14" s="52" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="15">
+      <c r="B54" s="54" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/10_Java/学习笔记_开发工具_IDEA.xlsx
+++ b/10_Java/学习笔记_开发工具_IDEA.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905DAEB5-52F4-4126-9552-18BD43C91E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -16,16 +17,17 @@
     <sheet name="重点" sheetId="9" r:id="rId7"/>
     <sheet name="总结" sheetId="4" r:id="rId8"/>
     <sheet name="快捷键" sheetId="12" r:id="rId9"/>
-    <sheet name="问题" sheetId="8" r:id="rId10"/>
-    <sheet name="参考" sheetId="7" r:id="rId11"/>
-    <sheet name="插件" sheetId="11" r:id="rId12"/>
+    <sheet name="Maven配置" sheetId="13" r:id="rId10"/>
+    <sheet name="问题" sheetId="8" r:id="rId11"/>
+    <sheet name="参考" sheetId="7" r:id="rId12"/>
+    <sheet name="插件" sheetId="11" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="520">
   <si>
     <r>
       <rPr>
@@ -3768,12 +3770,338 @@
     <t>自动导入类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>IDEA上的Maven配置：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>settings.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IDEA上的项目配置：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDK配置：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;?xml version="1.0" encoding="UTF-8" ?&gt;
+&lt;!--
+Licensed to the Apache Software Foundation (ASF) under one
+or more contributor license agreements.  See the NOTICE file
+distributed with this work for additional information
+regarding copyright ownership.  The ASF licenses this file
+to you under the Apache License, Version 2.0 (the
+"License"); you may not use this file except in compliance
+with the License.  You may obtain a copy of the License at
+    http://www.apache.org/licenses/LICENSE-2.0
+Unless required by applicable law or agreed to in writing,
+software distributed under the License is distributed on an
+"AS IS" BASIS, WITHOUT WARRANTIES OR CONDITIONS OF ANY
+KIND, either express or implied.  See the License for the
+specific language governing permissions and limitations
+under the License.
+--&gt;
+&lt;!--
+ | This is the configuration file for Maven. It can be specified at two levels:
+ |
+ |  1. User Level. This settings.xml file provides configuration for a single user,
+ |                 and is normally provided in ${user.home}/.m2/settings.xml.
+ |
+ |                 NOTE: This location can be overridden with the CLI option:
+ |
+ |                 -s /path/to/user/settings.xml
+ |
+ |  2. Global Level. This settings.xml file provides configuration for all Maven
+ |                 users on a machine (assuming they're all using the same Maven
+ |                 installation). It's normally provided in
+ |                 ${maven.home}/conf/settings.xml.
+ |
+ |                 NOTE: This location can be overridden with the CLI option:
+ |
+ |                 -gs /path/to/global/settings.xml
+ |
+ | The sections in this sample file are intended to give you a running start at
+ | getting the most out of your Maven installation. Where appropriate, the default
+ | values (values used when the setting is not specified) are provided.
+ |
+ |--&gt;
+&lt;settings xmlns="http://maven.apache.org/SETTINGS/1.0.0"
+          xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance"
+          xsi:schemaLocation="http://maven.apache.org/SETTINGS/1.0.0 http://maven.apache.org/xsd/settings-1.0.0.xsd"&gt;
+    &lt;!-- localRepository
+     | The path to the local repository maven will use to store artifacts.
+     |
+     | Default: ${user.home}/.m2/repository
+    &lt;localRepository&gt;/path/to/local/repo&lt;/localRepository&gt;
+    --&gt;
+    &lt;!--本地仓库--&gt;
+    &lt;localRepository&gt;D:\870_Env\02_Maven\MavenRepository\repository&lt;/localRepository&gt;
+&lt;!-- interactiveMode
+     | This will determine whether maven prompts you when it needs input. If set to false,
+     | maven will use a sensible default value, perhaps based on some other setting, for
+     | the parameter in question.
+     |
+     | Default: true
+    &lt;interactiveMode&gt;true&lt;/interactiveMode&gt;
+    --&gt;
+    &lt;!-- offline
+     | Determines whether maven should attempt to connect to the network when executing a build.
+     | This will have an effect on artifact downloads, artifact deployment, and others.
+     |
+     | Default: false
+    &lt;offline&gt;false&lt;/offline&gt;
+    --&gt;
+    &lt;!-- pluginGroups
+     | This is a list of additional group identifiers that will be searched when resolving plugins by their prefix, i.e.
+     | when invoking a command line like "mvn prefix:goal". Maven will automatically add the group identifiers
+     | "org.apache.maven.plugins" and "org.codehaus.mojo" if these are not already contained in the list.
+     |--&gt;
+    &lt;pluginGroups&gt;
+        &lt;!-- pluginGroup
+         | Specifies a further group identifier to use for plugin lookup.
+        &lt;pluginGroup&gt;com.your.plugins&lt;/pluginGroup&gt;
+        --&gt;
+    &lt;/pluginGroups&gt;
+    &lt;!-- proxies
+     | This is a list of proxies which can be used on this machine to connect to the network.
+     | Unless otherwise specified (by system property or command-line switch), the first proxy
+     | specification in this list marked as active will be used.
+     |--&gt;
+    &lt;proxies&gt;
+        &lt;!-- proxy
+         | Specification for one proxy, to be used in connecting to the network.
+         |
+        &lt;proxy&gt;
+          &lt;id&gt;optional&lt;/id&gt;
+          &lt;active&gt;true&lt;/active&gt;
+          &lt;protocol&gt;http&lt;/protocol&gt;
+          &lt;username&gt;proxyuser&lt;/username&gt;
+          &lt;password&gt;proxypass&lt;/password&gt;
+          &lt;host&gt;proxy.host.net&lt;/host&gt;
+          &lt;port&gt;80&lt;/port&gt;
+          &lt;nonProxyHosts&gt;local.net|some.host.com&lt;/nonProxyHosts&gt;
+        &lt;/proxy&gt;
+        --&gt;
+    &lt;/proxies&gt;
+    &lt;!-- servers
+     | This is a list of authentication profiles, keyed by the server-id used within the system.
+     | Authentication profiles can be used whenever maven must make a connection to a remote server.
+     |--&gt;
+    &lt;servers&gt;
+        &lt;!-- server
+         | Specifies the authentication information to use when connecting to a particular server, identified by
+         | a unique name within the system (referred to by the 'id' attribute below).
+         |
+         | NOTE: You should either specify username/password OR privateKey/passphrase, since these pairings are
+         |       used together.
+         |
+        &lt;server&gt;
+          &lt;id&gt;deploymentRepo&lt;/id&gt;
+          &lt;username&gt;repouser&lt;/username&gt;
+          &lt;password&gt;repopwd&lt;/password&gt;
+        &lt;/server&gt;
+        --&gt;
+        &lt;!-- Another sample, using keys to authenticate.
+        &lt;server&gt;
+          &lt;id&gt;siteServer&lt;/id&gt;
+          &lt;privateKey&gt;/path/to/private/key&lt;/privateKey&gt;
+          &lt;passphrase&gt;optional; leave empty if not used.&lt;/passphrase&gt;
+        &lt;/server&gt;
+        --&gt;
+    &lt;/servers&gt;
+    &lt;!-- mirrors
+     | This is a list of mirrors to be used in downloading artifacts from remote repositories.
+     |
+     | It works like this: a POM may declare a repository to use in resolving certain artifacts.
+     | However, this repository may have problems with heavy traffic at times, so people have mirrored
+     | it to several places.
+     |
+     | That repository definition will have a unique id, so we can create a mirror reference for that
+     | repository, to be used as an alternate download site. The mirror site will be the preferred
+     | server for that repository.
+     |--&gt;
+    &lt;mirrors&gt;
+        &lt;!-- mirror
+         | Specifies a repository mirror site to use instead of a given repository. The repository that
+         | this mirror serves has an ID that matches the mirrorOf element of this mirror. IDs are used
+         | for inheritance and direct lookup purposes, and must be unique across the set of mirrors.
+         |
+        &lt;mirror&gt;
+          &lt;id&gt;mirrorId&lt;/id&gt;
+          &lt;mirrorOf&gt;repositoryId&lt;/mirrorOf&gt;
+          &lt;name&gt;Human Readable Name for this Mirror.&lt;/name&gt;
+          &lt;url&gt;http://my.repository.com/repo/path&lt;/url&gt;
+        &lt;/mirror&gt;
+         --&gt;
+        &lt;mirror&gt;
+          &lt;id&gt;central&lt;/id&gt;
+          &lt;name&gt;Maven central Repository&lt;/name&gt;
+          &lt;url&gt;https://repo1.maven.org/maven2/&lt;/url&gt;
+          &lt;mirrorOf&gt;central&lt;/mirrorOf&gt;
+        &lt;/mirror&gt;
+        &lt;mirror&gt;
+            &lt;id&gt;alimaven-central&lt;/id&gt;
+            &lt;mirrorOf&gt;central&lt;/mirrorOf&gt;
+            &lt;name&gt;aliyun maven&lt;/name&gt;
+            &lt;url&gt;http://maven.aliyun.com/nexus/content/repositories/central/&lt;/url&gt;
+        &lt;/mirror&gt;
+        &lt;mirror&gt;
+            &lt;id&gt;jboss-public-repository-group&lt;/id&gt;
+            &lt;mirrorOf&gt;central&lt;/mirrorOf&gt;
+            &lt;name&gt;JBoss Public Repository Group&lt;/name&gt;
+            &lt;url&gt;http://repository.jboss.org/nexus/content/groups/public&lt;/url&gt;
+        &lt;/mirror&gt;
+        &lt;!--&lt;mirror&gt;
+            &lt;id&gt;alimaven&lt;/id&gt;
+            &lt;name&gt;aliyun maven&lt;/name&gt;
+            &lt;url&gt;http://maven.aliyun.com/nexus/content/groups/public/&lt;/url&gt;
+            &lt;mirrorOf&gt;central&lt;/mirrorOf&gt;
+        &lt;/mirror&gt;
+        &lt;mirror&gt;
+            &lt;id&gt;ibiblio&lt;/id&gt;
+            &lt;mirrorOf&gt;central&lt;/mirrorOf&gt;
+            &lt;name&gt;Human Readable Name for this Mirror.&lt;/name&gt;
+            &lt;url&gt;http://mirrors.ibiblio.org/pub/mirrors/maven2/&lt;/url&gt;
+        &lt;/mirror&gt;
+        &lt;mirror&gt;
+            &lt;id&gt;central&lt;/id&gt;
+            &lt;name&gt;Maven Repository Switchboard&lt;/name&gt;
+            &lt;url&gt;http://repo1.maven.org/maven2/&lt;/url&gt;
+            &lt;mirrorOf&gt;central&lt;/mirrorOf&gt;
+        &lt;/mirror&gt;
+        &lt;mirror&gt;
+            &lt;id&gt;repo2&lt;/id&gt;
+            &lt;mirrorOf&gt;central&lt;/mirrorOf&gt;
+            &lt;name&gt;Human Readable Name for this Mirror.&lt;/name&gt;
+            &lt;url&gt;http://repo2.maven.org/maven2/&lt;/url&gt;
+        &lt;/mirror&gt;--&gt;
+    &lt;/mirrors&gt;
+    &lt;!-- profiles
+     | This is a list of profiles which can be activated in a variety of ways, and which can modify
+     | the build process. Profiles provided in the settings.xml are intended to provide local machine-
+     | specific paths and repository locations which allow the build to work in the local environment.
+     |
+     | For example, if you have an integration testing plugin - like cactus - that needs to know where
+     | your Tomcat instance is installed, you can provide a variable here such that the variable is
+     | dereferenced during the build process to configure the cactus plugin.
+     |
+     | As noted above, profiles can be activated in a variety of ways. One way - the activeProfiles
+     | section of this document (settings.xml) - will be discussed later. Another way essentially
+     | relies on the detection of a system property, either matching a particular value for the property,
+     | or merely testing its existence. Profiles can also be activated by JDK version prefix, where a
+     | value of '1.4' might activate a profile when the build is executed on a JDK version of '1.4.2_07'.
+     | Finally, the list of active profiles can be specified directly from the command line.
+     |
+     | NOTE: For profiles defined in the settings.xml, you are restricted to specifying only artifact
+     |       repositories, plugin repositories, and free-form properties to be used as configuration
+     |       variables for plugins in the POM.
+     |
+     |--&gt;
+    &lt;profiles&gt;
+        &lt;!-- profile
+         | Specifies a set of introductions to the build process, to be activated using one or more of the
+         | mechanisms described above. For inheritance purposes, and to activate profiles via &lt;activatedProfiles/&gt;
+         | or the command line, profiles have to have an ID that is unique.
+         |
+         | An encouraged best practice for profile identification is to use a consistent naming convention
+         | for profiles, such as 'env-dev', 'env-test', 'env-production', 'user-jdcasey', 'user-brett', etc.
+         | This will make it more intuitive to understand what the set of introduced profiles is attempting
+         | to accomplish, particularly when you only have a list of profile id's for debug.
+         |
+         | This profile example uses the JDK version to trigger activation, and provides a JDK-specific repo.
+        &lt;profile&gt;
+          &lt;id&gt;jdk-1.4&lt;/id&gt;
+          &lt;activation&gt;
+            &lt;jdk&gt;1.4&lt;/jdk&gt;
+          &lt;/activation&gt;
+          &lt;repositories&gt;
+            &lt;repository&gt;
+              &lt;id&gt;jdk14&lt;/id&gt;
+              &lt;name&gt;Repository for JDK 1.4 builds&lt;/name&gt;
+              &lt;url&gt;http://www.myhost.com/maven/jdk14&lt;/url&gt;
+              &lt;layout&gt;default&lt;/layout&gt;
+              &lt;snapshotPolicy&gt;always&lt;/snapshotPolicy&gt;
+            &lt;/repository&gt;
+          &lt;/repositories&gt;
+        &lt;/profile&gt;
+        --&gt;
+        &lt;profile&gt;
+            &lt;id&gt;jdk18&lt;/id&gt;
+            &lt;activation&gt;
+                &lt;jdk&gt;1.8&lt;/jdk&gt;
+                &lt;activeByDefault&gt;true&lt;/activeByDefault&gt;
+            &lt;/activation&gt;
+            &lt;properties&gt;
+                &lt;maven.compiler.source&gt;1.8&lt;/maven.compiler.source&gt;
+                &lt;maven.compiler.target&gt;1.8&lt;/maven.compiler.target&gt;
+                &lt;maven.compiler.compilerVersion&gt;1.8&lt;/maven.compiler.compilerVersion&gt;
+            &lt;/properties&gt;
+        &lt;/profile&gt;
+        &lt;!--
+         | Here is another profile, activated by the system property 'target-env' with a value of 'dev',
+         | which provides a specific path to the Tomcat instance. To use this, your plugin configuration
+         | might hypothetically look like:
+         |
+         | ...
+         | &lt;plugin&gt;
+         |   &lt;groupId&gt;org.myco.myplugins&lt;/groupId&gt;
+         |   &lt;artifactId&gt;myplugin&lt;/artifactId&gt;
+         |
+         |   &lt;configuration&gt;
+         |     &lt;tomcatLocation&gt;${tomcatPath}&lt;/tomcatLocation&gt;
+         |   &lt;/configuration&gt;
+         | &lt;/plugin&gt;
+         | ...
+         |
+         | NOTE: If you just wanted to inject this configuration whenever someone set 'target-env' to
+         |       anything, you could just leave off the &lt;value/&gt; inside the activation-property.
+         |
+        &lt;profile&gt;
+          &lt;id&gt;env-dev&lt;/id&gt;
+          &lt;activation&gt;
+            &lt;property&gt;
+              &lt;name&gt;target-env&lt;/name&gt;
+              &lt;value&gt;dev&lt;/value&gt;
+            &lt;/property&gt;
+          &lt;/activation&gt;
+          &lt;properties&gt;
+            &lt;tomcatPath&gt;/path/to/tomcat/instance&lt;/tomcatPath&gt;
+          &lt;/properties&gt;
+        &lt;/profile&gt;
+        --&gt;
+    &lt;/profiles&gt;
+    &lt;!-- activeProfiles
+     | List of profiles that are active for all builds.
+     |
+    &lt;activeProfiles&gt;
+      &lt;activeProfile&gt;alwaysActiveProfile&lt;/activeProfile&gt;
+      &lt;activeProfile&gt;anotherAlwaysActiveProfile&lt;/activeProfile&gt;
+    &lt;/activeProfiles&gt;
+    --&gt;
+&lt;/settings&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，下载的IDEA程序如果是解压后可以直接使用的，其全路径不要包含中文名。那样会导致程序下载不了依赖包。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即保证程序的全路径都在英文目录下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于IDEA绿色版（解压即可用）的目录问题：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="75">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="77">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4313,6 +4641,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4395,7 +4741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4431,7 +4777,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -4443,18 +4789,16 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4544,6 +4888,14 @@
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4574,7 +4926,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -4582,6 +4934,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4604,7 +4959,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/12.png"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/12.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4659,7 +5020,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/0.png"/>
+        <xdr:cNvPr id="4" name="图片 3" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/0.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4721,7 +5088,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/2.png"/>
+        <xdr:cNvPr id="6" name="图片 5" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4776,7 +5149,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/3.png"/>
+        <xdr:cNvPr id="7" name="图片 6" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4831,7 +5210,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/4.png"/>
+        <xdr:cNvPr id="8" name="图片 7" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4886,7 +5271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="图片 8" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/5.png"/>
+        <xdr:cNvPr id="9" name="图片 8" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4948,7 +5339,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/6.png"/>
+        <xdr:cNvPr id="10" name="图片 9" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/6.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5003,7 +5400,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="图片 10" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/01-200.png"/>
+        <xdr:cNvPr id="11" name="图片 10" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/01-200.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5065,7 +5468,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="图片 11" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/7.png"/>
+        <xdr:cNvPr id="12" name="图片 11" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5127,7 +5536,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="图片 12" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/8.png"/>
+        <xdr:cNvPr id="13" name="图片 12" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/8.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5182,7 +5597,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="图片 13" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/9.png"/>
+        <xdr:cNvPr id="14" name="图片 13" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5237,7 +5658,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="图片 15" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/11.png"/>
+        <xdr:cNvPr id="16" name="图片 15" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/11.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5292,7 +5719,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="图片 16" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/12.png"/>
+        <xdr:cNvPr id="17" name="图片 16" descr="https://tech.souyunku.com/wp-content/uploads/2020/05/12.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5347,7 +5780,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPr id="19" name="图片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5402,7 +5841,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5457,7 +5902,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="图片 17" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-1.png"/>
+        <xdr:cNvPr id="18" name="图片 17" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-1.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5517,7 +5968,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="图片 19" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-2.png"/>
+        <xdr:cNvPr id="20" name="图片 19" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-2.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5577,7 +6034,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="图片 21" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-3.png"/>
+        <xdr:cNvPr id="22" name="图片 21" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-3.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5637,7 +6100,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="图片 22" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-4.png"/>
+        <xdr:cNvPr id="23" name="图片 22" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-4.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5697,7 +6166,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="图片 23" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-5.png"/>
+        <xdr:cNvPr id="24" name="图片 23" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-5.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5757,7 +6232,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="图片 24" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-6.png"/>
+        <xdr:cNvPr id="25" name="图片 24" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-6.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5817,7 +6298,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="图片 25" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-7.png"/>
+        <xdr:cNvPr id="26" name="图片 25" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-7.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5877,7 +6364,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="图片 26" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-8.png"/>
+        <xdr:cNvPr id="27" name="图片 26" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-8.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5937,7 +6430,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="图片 27" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-9.png"/>
+        <xdr:cNvPr id="28" name="图片 27" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-9.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5997,7 +6496,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="图片 28" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-17.png"/>
+        <xdr:cNvPr id="29" name="图片 28" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-17.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6057,7 +6562,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="图片 29" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-gzh.png"/>
+        <xdr:cNvPr id="30" name="图片 29" descr="https://tech.souyunku.com/wp-content/uploads/229999/9999-gzh.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6111,18 +6622,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="http://img.jbzj.deiniu.com/file_images/article/202103/2021033014472550.jpg"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="http://img.jbzj.deiniu.com/file_images/article/202103/2021033014472550.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6166,18 +6683,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>170360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>95</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="http://img.jbzj.deiniu.com/file_images/article/202103/2021033014472551.jpg"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="http://img.jbzj.deiniu.com/file_images/article/202103/2021033014472551.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6224,6 +6747,187 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>105158</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95665</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85BBCCA2-75C3-2C07-F1CD-B07655FE8236}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790575" y="600075"/>
+          <a:ext cx="2743583" cy="2972215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>582333</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>143842</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C64AFB96-9728-B30F-FA6F-CFC387A2A61A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="809625" y="4114800"/>
+          <a:ext cx="9373908" cy="6925642"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>667136</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08F0C239-5468-3D5B-8462-76BBB0978BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="12011025"/>
+          <a:ext cx="2762636" cy="2905530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29633</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>95860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64608C8B-7D12-D5A8-CE3F-04E388660C04}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="15382875"/>
+          <a:ext cx="7582958" cy="4372585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -6237,7 +6941,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="https://exp-picture.cdn.bcebos.com/49701aebf6a75f0f1354435b97324b18502c4cd4.jpg?x-bce-process=image%2Fresize%2Cm_lfit%2Cw_500%2Climit_1%2Fformat%2Cf_jpg%2Fquality%2Cq_80"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="https://exp-picture.cdn.bcebos.com/49701aebf6a75f0f1354435b97324b18502c4cd4.jpg?x-bce-process=image%2Fresize%2Cm_lfit%2Cw_500%2Climit_1%2Fformat%2Cf_jpg%2Fquality%2Cq_80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6292,7 +7002,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="https://exp-picture.cdn.bcebos.com/57af657f860e7c75458bcb40650d3aceabd7bfd4.jpg?x-bce-process=image%2Fresize%2Cm_lfit%2Cw_500%2Climit_1%2Fformat%2Cf_jpg%2Fquality%2Cq_80"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="https://exp-picture.cdn.bcebos.com/57af657f860e7c75458bcb40650d3aceabd7bfd4.jpg?x-bce-process=image%2Fresize%2Cm_lfit%2Cw_500%2Climit_1%2Fformat%2Cf_jpg%2Fquality%2Cq_80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0B00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -6590,14 +7306,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6619,7 +7335,247 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E32CAE-FBCC-4352-9464-E261A9BE0AB6}">
+  <dimension ref="A1:Q83"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" ht="20.25">
+      <c r="A1" s="68" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="25.5">
+      <c r="H2" s="69" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="I3" s="70" t="s">
+        <v>516</v>
+      </c>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="71"/>
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="71"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="71"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="71"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="71"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="71"/>
+      <c r="P11" s="71"/>
+      <c r="Q11" s="71"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="71"/>
+      <c r="Q12" s="71"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="I15" s="71"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="71"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+    </row>
+    <row r="17" spans="9:17">
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+    </row>
+    <row r="18" spans="9:17">
+      <c r="I18" s="71"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+    </row>
+    <row r="19" spans="9:17">
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="71"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+    </row>
+    <row r="20" spans="9:17">
+      <c r="I20" s="71"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+    </row>
+    <row r="64" spans="1:1" ht="20.25">
+      <c r="A64" s="68" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I3:Q20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -6632,8 +7588,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -6648,23 +7604,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L102"/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A52" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A40" workbookViewId="0">
       <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="32.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6679,27 +7635,27 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="30" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="30" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>121</v>
       </c>
     </row>
@@ -6709,555 +7665,476 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="31" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="41" spans="2:9">
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="31" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:9">
-      <c r="B42" s="34" t="s">
+      <c r="B42" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
     </row>
     <row r="43" spans="2:9">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
     </row>
     <row r="44" spans="2:9">
-      <c r="B44" s="36" t="s">
+      <c r="B44" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
     </row>
     <row r="45" spans="2:9">
-      <c r="B45" s="36" t="s">
+      <c r="B45" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
     </row>
     <row r="46" spans="2:9">
-      <c r="B46" s="36" t="s">
+      <c r="B46" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
     </row>
     <row r="47" spans="2:9">
-      <c r="B47" s="36" t="s">
+      <c r="B47" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
     </row>
     <row r="48" spans="2:9">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
     </row>
     <row r="50" spans="1:10" ht="27">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="53" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="55" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75">
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="55" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75">
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="55" t="s">
         <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75">
-      <c r="B55" s="57" t="s">
+      <c r="B55" s="55" t="s">
         <v>425</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="15.75">
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="54" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75">
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="54" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="18">
-      <c r="B58" s="58" t="s">
+      <c r="B58" s="56" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75">
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="55" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="55" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="27">
-      <c r="A63" s="55" t="s">
+      <c r="A63" s="53" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="18.75">
-      <c r="B64" s="59" t="s">
+      <c r="B64" s="57" t="s">
         <v>430</v>
       </c>
-      <c r="J64" s="60" t="s">
+      <c r="J64" s="58" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="18.75">
-      <c r="B65" s="59" t="s">
+    <row r="65" spans="1:10" ht="18.75">
+      <c r="B65" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="J65" s="60" t="s">
+      <c r="J65" s="58" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="19.5">
-      <c r="B66" s="59" t="s">
+    <row r="66" spans="1:10" ht="19.5">
+      <c r="B66" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="J66" s="60" t="s">
+      <c r="J66" s="58" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="18.75">
-      <c r="B67" s="59" t="s">
+    <row r="67" spans="1:10" ht="18.75">
+      <c r="B67" s="57" t="s">
         <v>436</v>
       </c>
-      <c r="J67" s="60" t="s">
+      <c r="J67" s="58" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="18.75">
-      <c r="B68" s="59" t="s">
+    <row r="68" spans="1:10" ht="18.75">
+      <c r="B68" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="J68" s="60" t="s">
+      <c r="J68" s="58" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="18.75">
-      <c r="B69" s="59" t="s">
+    <row r="69" spans="1:10" ht="18.75">
+      <c r="B69" s="57" t="s">
         <v>440</v>
       </c>
-      <c r="J69" s="60" t="s">
+      <c r="J69" s="58" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="18.75">
-      <c r="B70" s="59" t="s">
+    <row r="70" spans="1:10" ht="18.75">
+      <c r="B70" s="57" t="s">
         <v>441</v>
       </c>
-      <c r="J70" s="60" t="s">
+      <c r="J70" s="58" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="18.75">
-      <c r="B71" s="59" t="s">
+    <row r="71" spans="1:10" ht="18.75">
+      <c r="B71" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="J71" s="60" t="s">
+      <c r="J71" s="58" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="18.75">
-      <c r="B72" s="59" t="s">
+    <row r="72" spans="1:10" ht="18.75">
+      <c r="B72" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="J72" s="60" t="s">
+      <c r="J72" s="58" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="18.75">
-      <c r="B73" s="59" t="s">
+    <row r="73" spans="1:10" ht="18.75">
+      <c r="B73" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="J73" s="60" t="s">
+      <c r="J73" s="58" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="18.75">
-      <c r="B74" s="59" t="s">
+    <row r="74" spans="1:10" ht="18.75">
+      <c r="B74" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="J74" s="60" t="s">
+      <c r="J74" s="58" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="18.75">
-      <c r="B75" s="59" t="s">
+    <row r="75" spans="1:10" ht="18.75">
+      <c r="B75" s="57" t="s">
         <v>451</v>
       </c>
-      <c r="J75" s="60" t="s">
+      <c r="J75" s="58" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="18.75">
-      <c r="B76" s="59" t="s">
+    <row r="76" spans="1:10" ht="18.75">
+      <c r="B76" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="J76" s="60" t="s">
+      <c r="J76" s="58" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="18.75">
-      <c r="B77" s="59" t="s">
+    <row r="77" spans="1:10" ht="18.75">
+      <c r="B77" s="57" t="s">
         <v>455</v>
       </c>
-      <c r="J77" s="60" t="s">
+      <c r="J77" s="58" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="18.75">
-      <c r="A78" s="61"/>
-      <c r="B78" s="59" t="s">
+    <row r="78" spans="1:10" ht="18.75">
+      <c r="A78" s="59"/>
+      <c r="B78" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="C78" s="21"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="21"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="21"/>
-      <c r="H78" s="21"/>
-      <c r="I78" s="21"/>
-      <c r="J78" s="62" t="s">
+      <c r="J78" s="60" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="18.75">
-      <c r="B79" s="59" t="s">
+    <row r="79" spans="1:10" ht="18.75">
+      <c r="B79" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="21"/>
-      <c r="H79" s="21"/>
-      <c r="I79" s="21"/>
-      <c r="J79" s="62" t="s">
+      <c r="J79" s="60" t="s">
         <v>460</v>
       </c>
-      <c r="K79" s="21"/>
-      <c r="L79" s="21"/>
-    </row>
-    <row r="80" spans="1:12" ht="18.75">
-      <c r="B80" s="59" t="s">
+    </row>
+    <row r="80" spans="1:10" ht="18.75">
+      <c r="B80" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="21"/>
-      <c r="H80" s="21"/>
-      <c r="I80" s="21"/>
-      <c r="J80" s="62" t="s">
+      <c r="J80" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="K80" s="21"/>
-      <c r="L80" s="21"/>
-    </row>
-    <row r="81" spans="2:12" ht="18.75">
-      <c r="B81" s="59" t="s">
+    </row>
+    <row r="81" spans="2:10" ht="18.75">
+      <c r="B81" s="57" t="s">
         <v>463</v>
       </c>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="21"/>
-      <c r="H81" s="21"/>
-      <c r="I81" s="21"/>
-      <c r="J81" s="62" t="s">
+      <c r="J81" s="60" t="s">
         <v>464</v>
       </c>
-      <c r="K81" s="21"/>
-      <c r="L81" s="21"/>
-    </row>
-    <row r="82" spans="2:12" ht="18.75">
-      <c r="B82" s="59" t="s">
+    </row>
+    <row r="82" spans="2:10" ht="18.75">
+      <c r="B82" s="57" t="s">
         <v>465</v>
       </c>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="21"/>
-      <c r="H82" s="21"/>
-      <c r="I82" s="21"/>
-      <c r="J82" s="62" t="s">
+      <c r="J82" s="60" t="s">
         <v>466</v>
       </c>
-      <c r="K82" s="21"/>
-      <c r="L82" s="21"/>
-    </row>
-    <row r="83" spans="2:12" ht="18.75">
-      <c r="B83" s="59" t="s">
+    </row>
+    <row r="83" spans="2:10" ht="18.75">
+      <c r="B83" s="57" t="s">
         <v>467</v>
       </c>
-      <c r="C83" s="21"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="21"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="21"/>
-      <c r="H83" s="21"/>
-      <c r="I83" s="21"/>
-      <c r="J83" s="62" t="s">
+      <c r="J83" s="60" t="s">
         <v>468</v>
       </c>
-      <c r="K83" s="21"/>
-      <c r="L83" s="21"/>
-    </row>
-    <row r="84" spans="2:12" ht="18.75">
-      <c r="B84" s="59" t="s">
+    </row>
+    <row r="84" spans="2:10" ht="18.75">
+      <c r="B84" s="57" t="s">
         <v>469</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="21"/>
-      <c r="H84" s="21"/>
-      <c r="I84" s="21"/>
-      <c r="J84" s="66" t="s">
+      <c r="J84" s="64" t="s">
         <v>478</v>
       </c>
-      <c r="K84" s="21"/>
-      <c r="L84" s="21"/>
-    </row>
-    <row r="85" spans="2:12" ht="18.75">
-      <c r="B85" s="59" t="s">
+    </row>
+    <row r="85" spans="2:10" ht="18.75">
+      <c r="B85" s="57" t="s">
         <v>470</v>
       </c>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="21"/>
-      <c r="H85" s="21"/>
-      <c r="I85" s="21"/>
-      <c r="J85" s="62" t="s">
+      <c r="J85" s="60" t="s">
         <v>471</v>
       </c>
-      <c r="K85" s="21"/>
-      <c r="L85" s="21"/>
-    </row>
-    <row r="86" spans="2:12" ht="19.5">
-      <c r="B86" s="64" t="s">
+    </row>
+    <row r="86" spans="2:10" ht="19.5">
+      <c r="B86" s="62" t="s">
         <v>472</v>
       </c>
-      <c r="C86" s="21"/>
-      <c r="D86" s="21"/>
-      <c r="E86" s="21"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="21"/>
-      <c r="H86" s="21"/>
-      <c r="I86" s="21"/>
-      <c r="J86" s="65" t="s">
+      <c r="J86" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="K86" s="21"/>
-      <c r="L86" s="21"/>
-    </row>
-    <row r="87" spans="2:12" ht="19.5">
-      <c r="B87" s="64" t="s">
+    </row>
+    <row r="87" spans="2:10" ht="19.5">
+      <c r="B87" s="62" t="s">
         <v>474</v>
       </c>
-      <c r="J87" s="65" t="s">
+      <c r="J87" s="63" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="88" spans="2:12" ht="19.5">
-      <c r="B88" s="64" t="s">
+    <row r="88" spans="2:10" ht="19.5">
+      <c r="B88" s="62" t="s">
         <v>476</v>
       </c>
       <c r="J88" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="89" spans="2:12" ht="19.5">
-      <c r="B89" s="63" t="s">
+    <row r="89" spans="2:10" ht="19.5">
+      <c r="B89" s="61" t="s">
         <v>479</v>
       </c>
-      <c r="J89" s="65" t="s">
+      <c r="J89" s="63" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="90" spans="2:12" ht="19.5">
-      <c r="B90" s="64" t="s">
+    <row r="90" spans="2:10" ht="19.5">
+      <c r="B90" s="62" t="s">
         <v>481</v>
       </c>
-      <c r="C90" s="64"/>
-      <c r="J90" s="65" t="s">
+      <c r="C90" s="62"/>
+      <c r="J90" s="63" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="91" spans="2:12" ht="19.5">
-      <c r="B91" s="64" t="s">
+    <row r="91" spans="2:10" ht="19.5">
+      <c r="B91" s="62" t="s">
         <v>483</v>
       </c>
-      <c r="C91" s="64"/>
-      <c r="J91" s="65" t="s">
+      <c r="C91" s="62"/>
+      <c r="J91" s="63" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="92" spans="2:12" ht="19.5">
-      <c r="B92" s="64" t="s">
+    <row r="92" spans="2:10" ht="19.5">
+      <c r="B92" s="62" t="s">
         <v>485</v>
       </c>
-      <c r="C92" s="64"/>
-      <c r="J92" s="67" t="s">
+      <c r="C92" s="62"/>
+      <c r="J92" s="65" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="93" spans="2:12" ht="19.5">
-      <c r="B93" s="69" t="s">
+    <row r="93" spans="2:10" ht="19.5">
+      <c r="B93" s="67" t="s">
         <v>506</v>
       </c>
-      <c r="C93" s="64"/>
-      <c r="J93" s="67" t="s">
+      <c r="C93" s="62"/>
+      <c r="J93" s="65" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="94" spans="2:12" ht="19.5">
-      <c r="B94" s="64" t="s">
+    <row r="94" spans="2:10" ht="19.5">
+      <c r="B94" s="62" t="s">
         <v>486</v>
       </c>
-      <c r="C94" s="64"/>
-      <c r="J94" s="65" t="s">
+      <c r="C94" s="62"/>
+      <c r="J94" s="63" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="95" spans="2:12" ht="19.5">
-      <c r="B95" s="64" t="s">
+    <row r="95" spans="2:10" ht="19.5">
+      <c r="B95" s="62" t="s">
         <v>490</v>
       </c>
-      <c r="C95" s="64"/>
-      <c r="J95" s="65" t="s">
+      <c r="C95" s="62"/>
+      <c r="J95" s="63" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="19.5">
-      <c r="B96" s="64" t="s">
+    <row r="96" spans="2:10" ht="19.5">
+      <c r="B96" s="62" t="s">
         <v>492</v>
       </c>
-      <c r="C96" s="64"/>
-      <c r="J96" s="65" t="s">
+      <c r="C96" s="62"/>
+      <c r="J96" s="63" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="97" spans="2:10" ht="19.5">
-      <c r="B97" s="64" t="s">
+      <c r="B97" s="62" t="s">
         <v>494</v>
       </c>
-      <c r="C97" s="64"/>
-      <c r="J97" s="65" t="s">
+      <c r="C97" s="62"/>
+      <c r="J97" s="63" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="98" spans="2:10" ht="19.5">
-      <c r="B98" s="64" t="s">
+      <c r="B98" s="62" t="s">
         <v>496</v>
       </c>
-      <c r="C98" s="64"/>
-      <c r="J98" s="65" t="s">
+      <c r="C98" s="62"/>
+      <c r="J98" s="63" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="99" spans="2:10" ht="19.5">
-      <c r="B99" s="64" t="s">
+      <c r="B99" s="62" t="s">
         <v>498</v>
       </c>
-      <c r="C99" s="64"/>
-      <c r="J99" s="65" t="s">
+      <c r="C99" s="62"/>
+      <c r="J99" s="63" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="100" spans="2:10" ht="19.5">
-      <c r="B100" s="64" t="s">
+      <c r="B100" s="62" t="s">
         <v>500</v>
       </c>
-      <c r="C100" s="64"/>
-      <c r="J100" s="65" t="s">
+      <c r="C100" s="62"/>
+      <c r="J100" s="63" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="101" spans="2:10" ht="19.5">
-      <c r="B101" s="64" t="s">
+      <c r="B101" s="62" t="s">
         <v>502</v>
       </c>
-      <c r="C101" s="64"/>
-      <c r="J101" s="65" t="s">
+      <c r="C101" s="62"/>
+      <c r="J101" s="63" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="102" spans="2:10" ht="15.75">
-      <c r="B102" s="68" t="s">
+      <c r="B102" s="66" t="s">
         <v>504</v>
       </c>
-      <c r="J102" s="65" t="s">
+      <c r="J102" s="63" t="s">
         <v>505</v>
       </c>
     </row>
@@ -7270,17 +8147,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U447"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A236" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A490" workbookViewId="0">
       <selection activeCell="B440" sqref="B440"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="2" max="2" width="9" style="21"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="8" t="s">
@@ -7288,12 +8162,12 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7313,17 +8187,17 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>16</v>
       </c>
     </row>
@@ -7333,17 +8207,17 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="21" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="21" t="s">
+      <c r="B41" t="s">
         <v>19</v>
       </c>
     </row>
@@ -7358,7 +8232,7 @@
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="24" t="s">
         <v>22</v>
       </c>
     </row>
@@ -7388,52 +8262,52 @@
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="22"/>
+      <c r="B102" s="21"/>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="22"/>
+      <c r="B103" s="21"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="22"/>
+      <c r="B104" s="21"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="22"/>
+      <c r="B105" s="21"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="22"/>
+      <c r="B106" s="21"/>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="22"/>
+      <c r="B107" s="21"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="22"/>
+      <c r="B108" s="21"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="22"/>
+      <c r="B109" s="21"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="22"/>
+      <c r="B110" s="21"/>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="22"/>
+      <c r="B111" s="21"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="22"/>
+      <c r="B112" s="21"/>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="22"/>
+      <c r="B113" s="21"/>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="22"/>
+      <c r="B114" s="21"/>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="22"/>
+      <c r="B115" s="21"/>
     </row>
     <row r="116" spans="2:2">
-      <c r="B116" s="22"/>
+      <c r="B116" s="21"/>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="22"/>
+      <c r="B117" s="21"/>
     </row>
     <row r="122" spans="2:2" ht="17.25" thickBot="1">
       <c r="B122" s="11" t="s">
@@ -7579,7 +8453,7 @@
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="21" t="s">
+      <c r="B190" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7594,7 +8468,7 @@
       </c>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="26"/>
+      <c r="B195" s="25"/>
     </row>
     <row r="228" spans="1:2" ht="27.75">
       <c r="A228" s="18" t="s">
@@ -7602,22 +8476,22 @@
       </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="B230" s="21" t="s">
+      <c r="B230" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="B231" s="21" t="s">
+      <c r="B231" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="267" spans="2:2" ht="18">
-      <c r="B267" s="27" t="s">
+      <c r="B267" s="26" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="268" spans="2:2">
-      <c r="B268" s="21" t="s">
+      <c r="B268" t="s">
         <v>51</v>
       </c>
     </row>
@@ -7625,7 +8499,7 @@
       <c r="B269" s="19"/>
     </row>
     <row r="270" spans="2:2" ht="18">
-      <c r="B270" s="27" t="s">
+      <c r="B270" s="26" t="s">
         <v>52</v>
       </c>
     </row>
@@ -7635,52 +8509,52 @@
       </c>
     </row>
     <row r="272" spans="2:2">
-      <c r="B272" s="21" t="s">
+      <c r="B272" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="273" spans="2:2" ht="16.5">
-      <c r="B273" s="21" t="s">
+      <c r="B273" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="274" spans="2:2">
-      <c r="B274" s="21" t="s">
+      <c r="B274" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="275" spans="2:2">
-      <c r="B275" s="21" t="s">
+      <c r="B275" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="276" spans="2:2" ht="18">
-      <c r="B276" s="27" t="s">
+      <c r="B276" s="26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="277" spans="2:2">
-      <c r="B277" s="21" t="s">
+      <c r="B277" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="278" spans="2:2">
-      <c r="B278" s="21" t="s">
+      <c r="B278" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="279" spans="2:2" ht="18">
-      <c r="B279" s="27" t="s">
+      <c r="B279" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="280" spans="2:2">
-      <c r="B280" s="21" t="s">
+      <c r="B280" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="281" spans="2:2" ht="25.5">
-      <c r="B281" s="21" t="s">
+      <c r="B281" t="s">
         <v>62</v>
       </c>
     </row>
@@ -7688,285 +8562,285 @@
       <c r="B302" s="19"/>
     </row>
     <row r="303" spans="2:2">
-      <c r="B303" s="21" t="s">
+      <c r="B303" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="304" spans="2:2" ht="18">
-      <c r="B304" s="27" t="s">
+      <c r="B304" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="305" spans="2:2">
-      <c r="B305" s="21" t="s">
+      <c r="B305" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="306" spans="2:2">
-      <c r="B306" s="21" t="s">
+      <c r="B306" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="307" spans="2:2">
-      <c r="B307" s="21" t="s">
+      <c r="B307" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="308" spans="2:2">
-      <c r="B308" s="21" t="s">
+      <c r="B308" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="328" spans="2:2">
-      <c r="B328" s="21" t="s">
+      <c r="B328" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="329" spans="2:2" ht="18">
-      <c r="B329" s="27" t="s">
+      <c r="B329" s="26" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="330" spans="2:2" ht="24">
-      <c r="B330" s="21" t="s">
+      <c r="B330" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="332" spans="2:2" ht="18">
-      <c r="B332" s="27" t="s">
+      <c r="B332" s="26" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="333" spans="2:2">
-      <c r="B333" s="21" t="s">
+      <c r="B333" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="334" spans="2:2">
-      <c r="B334" s="21" t="s">
+      <c r="B334" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="336" spans="2:2" ht="18">
-      <c r="B336" s="27" t="s">
+      <c r="B336" s="26" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="337" spans="2:8">
-      <c r="B337" s="21" t="s">
+      <c r="B337" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="338" spans="2:8">
-      <c r="B338" s="21" t="s">
+      <c r="B338" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="339" spans="2:8">
-      <c r="B339" s="21" t="s">
+      <c r="B339" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="340" spans="2:8">
-      <c r="B340" s="21" t="s">
+      <c r="B340" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="341" spans="2:8">
-      <c r="B341" s="28" t="s">
+      <c r="B341" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C341" s="29"/>
-      <c r="D341" s="29"/>
-      <c r="E341" s="29"/>
-      <c r="F341" s="29"/>
-      <c r="G341" s="29"/>
-      <c r="H341" s="29"/>
+      <c r="C341" s="27"/>
+      <c r="D341" s="27"/>
+      <c r="E341" s="27"/>
+      <c r="F341" s="27"/>
+      <c r="G341" s="27"/>
+      <c r="H341" s="27"/>
     </row>
     <row r="342" spans="2:8">
-      <c r="B342" s="21" t="s">
+      <c r="B342" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="343" spans="2:8" ht="18">
-      <c r="B343" s="27" t="s">
+      <c r="B343" s="26" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="344" spans="2:8">
-      <c r="B344" s="24" t="s">
+      <c r="B344" s="23" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="345" spans="2:8">
-      <c r="B345" s="21" t="s">
+      <c r="B345" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="346" spans="2:8">
-      <c r="B346" s="21" t="s">
+      <c r="B346" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="347" spans="2:8" ht="16.5">
-      <c r="B347" s="21" t="s">
+      <c r="B347" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="348" spans="2:8">
-      <c r="B348" s="21" t="s">
+      <c r="B348" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="349" spans="2:8" ht="16.5">
-      <c r="B349" s="21" t="s">
+      <c r="B349" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="350" spans="2:8">
-      <c r="B350" s="21" t="s">
+      <c r="B350" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="371" spans="2:2">
-      <c r="B371" s="24" t="s">
+      <c r="B371" s="23" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="372" spans="2:2">
-      <c r="B372" s="21" t="s">
+      <c r="B372" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="373" spans="2:2">
-      <c r="B373" s="21" t="s">
+      <c r="B373" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="374" spans="2:2">
-      <c r="B374" s="21" t="s">
+      <c r="B374" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="375" spans="2:2" ht="16.5">
-      <c r="B375" s="21" t="s">
+      <c r="B375" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="376" spans="2:2" ht="16.5">
-      <c r="B376" s="21" t="s">
+      <c r="B376" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="377" spans="2:2">
-      <c r="B377" s="21" t="s">
+      <c r="B377" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="379" spans="2:2">
-      <c r="B379" s="21" t="s">
+      <c r="B379" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="380" spans="2:2">
-      <c r="B380" s="21" t="s">
+      <c r="B380" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="407" spans="2:2">
-      <c r="B407" s="21" t="s">
+      <c r="B407" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="408" spans="2:2">
-      <c r="B408" s="21" t="s">
+      <c r="B408" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="409" spans="2:2">
-      <c r="B409" s="21" t="s">
+      <c r="B409" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="410" spans="2:2">
-      <c r="B410" s="21" t="s">
+      <c r="B410" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="412" spans="2:2">
-      <c r="B412" s="24" t="s">
+      <c r="B412" s="23" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="413" spans="2:2">
-      <c r="B413" s="21" t="s">
+      <c r="B413" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="414" spans="2:2">
-      <c r="B414" s="21" t="s">
+      <c r="B414" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="415" spans="2:2">
-      <c r="B415" s="21" t="s">
+      <c r="B415" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="417" spans="2:2">
-      <c r="B417" s="21" t="s">
+      <c r="B417" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="418" spans="2:2">
-      <c r="B418" s="21" t="s">
+      <c r="B418" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="440" spans="2:2">
-      <c r="B440" s="24" t="s">
+      <c r="B440" s="23" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="441" spans="2:2">
-      <c r="B441" s="21" t="s">
+      <c r="B441" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="442" spans="2:2" ht="25.5">
-      <c r="B442" s="21" t="s">
+      <c r="B442" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="443" spans="2:2" ht="16.5">
-      <c r="B443" s="21" t="s">
+      <c r="B443" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="445" spans="2:2">
-      <c r="B445" s="21" t="s">
+      <c r="B445" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="446" spans="2:2">
-      <c r="B446" s="21" t="s">
+      <c r="B446" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="447" spans="2:2">
-      <c r="B447" s="21" t="s">
+      <c r="B447" t="s">
         <v>105</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
-    <hyperlink ref="P138" r:id="rId3"/>
-    <hyperlink ref="P135" r:id="rId4"/>
-    <hyperlink ref="B278" r:id="rId5"/>
-    <hyperlink ref="B280" r:id="rId6" display="https://pan.baidu.com/s/1RidzxozMkYaBnNq7FiQBSg"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P138" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="P135" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B278" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B280" r:id="rId6" display="https://pan.baidu.com/s/1RidzxozMkYaBnNq7FiQBSg" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId7"/>
@@ -7974,7 +8848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -7989,7 +8863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -8004,7 +8878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -8418,7 +9292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -8433,7 +9307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -8448,103 +9322,121 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25">
-      <c r="A1" s="51" t="s">
-        <v>411</v>
+      <c r="A1" s="49" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="B2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="F2" s="50"/>
+        <v>517</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="23.25">
+      <c r="A5" s="49" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" t="s">
+        <v>406</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>407</v>
+      </c>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" t="s">
         <v>408</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E7" s="48" t="s">
         <v>409</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" t="s">
+      <c r="F7" s="48"/>
+      <c r="G7" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" t="s">
+    <row r="8" spans="1:7">
+      <c r="B8" t="s">
         <v>509</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E8" s="48" t="s">
         <v>508</v>
       </c>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="B5" t="s">
+      <c r="F8" s="48"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" t="s">
         <v>511</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E9" s="48" t="s">
         <v>510</v>
       </c>
-      <c r="F5" s="50"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-    </row>
-    <row r="8" spans="1:7" ht="23.25">
-      <c r="A8" s="51" t="s">
+      <c r="F9" s="48"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+    </row>
+    <row r="12" spans="1:7" ht="23.25">
+      <c r="A12" s="49" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21">
-      <c r="B9" s="53" t="s">
+    <row r="13" spans="1:7" ht="21">
+      <c r="B13" s="51" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15">
-      <c r="B10" s="52" t="s">
+    <row r="14" spans="1:7" ht="15">
+      <c r="B14" s="50" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21">
-      <c r="B11" s="53" t="s">
+    <row r="15" spans="1:7" ht="21">
+      <c r="B15" s="51" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15">
-      <c r="B12" s="52" t="s">
+    <row r="16" spans="1:7" ht="15">
+      <c r="B16" s="50" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="B13" s="52" t="s">
+    <row r="17" spans="2:2" ht="15">
+      <c r="B17" s="50" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="B14" s="52" t="s">
+    <row r="18" spans="2:2" ht="15">
+      <c r="B18" s="50" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15">
-      <c r="B54" s="54" t="s">
+    <row r="58" spans="2:2" ht="15">
+      <c r="B58" s="52" t="s">
         <v>419</v>
       </c>
     </row>
+    <row r="104" customFormat="1"/>
+    <row r="105" customFormat="1"/>
+    <row r="106" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8553,1408 +9445,1408 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G282"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A260" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A248" workbookViewId="0">
       <selection activeCell="B280" sqref="B280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="9" style="39"/>
+    <col min="2" max="2" width="9" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="26.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="37" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="37" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="39" t="s">
+      <c r="B5" s="37" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="37" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="37" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="37" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="37" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="39" t="s">
+      <c r="B10" s="37" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="37" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="39" t="s">
+      <c r="B12" s="37" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="39" t="s">
+      <c r="B13" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="37" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="37" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="39" t="s">
+      <c r="B17" s="37" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="39" t="s">
+      <c r="B18" s="37" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="37" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="37" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="37" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="37" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="37" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="37" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="37" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="39" t="s">
+      <c r="B27" s="37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="37" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="39" t="s">
+      <c r="B29" s="37" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="37" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="37" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="39" t="s">
+      <c r="B32" s="37" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="37" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="39" t="s">
+      <c r="B34" s="37" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="37" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="39" t="s">
+      <c r="B36" s="37" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="37" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="39" t="s">
+      <c r="B38" s="37" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="37" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="37" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="37" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="37" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="37" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="37" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="37" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="37" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="37" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="37" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="37" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="37" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="37" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="37" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="37" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="37" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="39" t="s">
+      <c r="B55" s="37" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="37" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="39" t="s">
+      <c r="B57" s="37" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="37" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="39" t="s">
+      <c r="B59" s="37" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="39" t="s">
+      <c r="B60" s="37" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="39" t="s">
+      <c r="B61" s="37" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="39" t="s">
+      <c r="B62" s="37" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="39" t="s">
+      <c r="B63" s="37" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="39" t="s">
+      <c r="B64" s="37" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="39" t="s">
+      <c r="B65" s="37" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="39" t="s">
+      <c r="B66" s="37" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="39" t="s">
+      <c r="B67" s="37" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="39" t="s">
+      <c r="B68" s="37" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="39" t="s">
+      <c r="B69" s="37" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="39" t="s">
+      <c r="B70" s="37" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="39" t="s">
+      <c r="B71" s="37" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="39" t="s">
+      <c r="B72" s="37" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="39" t="s">
+      <c r="B73" s="37" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="39" t="s">
+      <c r="B74" s="37" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="39" t="s">
+      <c r="B75" s="37" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="39" t="s">
+      <c r="B76" s="37" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="37" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="39" t="s">
+      <c r="B78" s="37" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="39" t="s">
+      <c r="B79" s="37" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="39" t="s">
+      <c r="B80" s="37" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="39" t="s">
+      <c r="B81" s="37" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="38" t="s">
+      <c r="B83" s="36" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="39" t="s">
+      <c r="B84" s="37" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="39" t="s">
+      <c r="B85" s="37" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="39" t="s">
+      <c r="B86" s="37" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="37" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="37" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="39" t="s">
+      <c r="B89" s="37" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="38" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="41" t="s">
+      <c r="B91" s="39" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="37" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="39" t="s">
+      <c r="B93" s="37" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="39" t="s">
+      <c r="B94" s="37" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="39" t="s">
+      <c r="B95" s="37" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="39" t="s">
+      <c r="B96" s="37" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="37" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="38" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="39" t="s">
+      <c r="B99" s="37" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="39" t="s">
+      <c r="B100" s="37" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="39" t="s">
+      <c r="B101" s="37" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="39" t="s">
+      <c r="B102" s="37" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="103" spans="2:2">
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="37" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="37" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="37" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="37" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="37" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="37" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="37" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="37" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="111" spans="2:2">
-      <c r="B111" s="39" t="s">
+      <c r="B111" s="37" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="39" t="s">
+      <c r="B112" s="37" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="113" spans="2:2">
-      <c r="B113" s="39" t="s">
+      <c r="B113" s="37" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="114" spans="2:2">
-      <c r="B114" s="39" t="s">
+      <c r="B114" s="37" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="115" spans="2:2">
-      <c r="B115" s="39" t="s">
+      <c r="B115" s="37" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="117" spans="2:2">
-      <c r="B117" s="38" t="s">
+      <c r="B117" s="36" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="118" spans="2:2">
-      <c r="B118" s="39" t="s">
+      <c r="B118" s="37" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="119" spans="2:2">
-      <c r="B119" s="39" t="s">
+      <c r="B119" s="37" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="120" spans="2:2">
-      <c r="B120" s="39" t="s">
+      <c r="B120" s="37" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="121" spans="2:2">
-      <c r="B121" s="39" t="s">
+      <c r="B121" s="37" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="122" spans="2:2">
-      <c r="B122" s="39" t="s">
+      <c r="B122" s="37" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="123" spans="2:2">
-      <c r="B123" s="39" t="s">
+      <c r="B123" s="37" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="125" spans="2:2">
-      <c r="B125" s="38" t="s">
+      <c r="B125" s="36" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="126" spans="2:2">
-      <c r="B126" s="39" t="s">
+      <c r="B126" s="37" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="127" spans="2:2">
-      <c r="B127" s="39" t="s">
+      <c r="B127" s="37" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="128" spans="2:2">
-      <c r="B128" s="39" t="s">
+      <c r="B128" s="37" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:7">
-      <c r="B129" s="39" t="s">
+      <c r="B129" s="37" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="130" spans="1:7">
-      <c r="B130" s="39" t="s">
+      <c r="B130" s="37" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="131" spans="1:7">
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="37" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="132" spans="1:7">
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="37" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="133" spans="1:7">
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="37" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="37" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="37" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:7">
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="37" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="37" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="22.5">
-      <c r="A140" s="43" t="s">
+      <c r="A140" s="41" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="15">
-      <c r="B141" s="46" t="s">
+      <c r="B141" s="44" t="s">
         <v>399</v>
       </c>
-      <c r="C141" s="47"/>
-      <c r="D141" s="47"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="47"/>
-      <c r="G141" s="47"/>
+      <c r="C141" s="45"/>
+      <c r="D141" s="45"/>
+      <c r="E141" s="45"/>
+      <c r="F141" s="45"/>
+      <c r="G141" s="45"/>
     </row>
     <row r="142" spans="1:7" ht="15">
-      <c r="B142" s="44" t="s">
+      <c r="B142" s="42" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="15">
-      <c r="B143" s="44" t="s">
+      <c r="B143" s="42" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="15">
-      <c r="B144" s="44" t="s">
+      <c r="B144" s="42" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="145" spans="2:7" ht="15">
-      <c r="B145" s="44" t="s">
+      <c r="B145" s="42" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="146" spans="2:7" ht="15">
-      <c r="B146" s="46" t="s">
+      <c r="B146" s="44" t="s">
         <v>400</v>
       </c>
-      <c r="C146" s="47"/>
-      <c r="D146" s="47"/>
-      <c r="E146" s="47"/>
-      <c r="F146" s="47"/>
-      <c r="G146" s="47"/>
+      <c r="C146" s="45"/>
+      <c r="D146" s="45"/>
+      <c r="E146" s="45"/>
+      <c r="F146" s="45"/>
+      <c r="G146" s="45"/>
     </row>
     <row r="147" spans="2:7" ht="15">
-      <c r="B147" s="44" t="s">
+      <c r="B147" s="42" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="148" spans="2:7" ht="15">
-      <c r="B148" s="44" t="s">
+      <c r="B148" s="42" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="149" spans="2:7" ht="15">
-      <c r="B149" s="44" t="s">
+      <c r="B149" s="42" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="150" spans="2:7" ht="15">
-      <c r="B150" s="44" t="s">
+      <c r="B150" s="42" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="151" spans="2:7" ht="15">
-      <c r="B151" s="44" t="s">
+      <c r="B151" s="42" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="152" spans="2:7" ht="15">
-      <c r="B152" s="44" t="s">
+      <c r="B152" s="42" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="153" spans="2:7" ht="15">
-      <c r="B153" s="44" t="s">
+      <c r="B153" s="42" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="154" spans="2:7" ht="15">
-      <c r="B154" s="44" t="s">
+      <c r="B154" s="42" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="155" spans="2:7" ht="15">
-      <c r="B155" s="44" t="s">
+      <c r="B155" s="42" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="156" spans="2:7" ht="15">
-      <c r="B156" s="44"/>
+      <c r="B156" s="42"/>
     </row>
     <row r="157" spans="2:7" ht="15">
-      <c r="B157" s="44" t="s">
+      <c r="B157" s="42" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="158" spans="2:7" ht="15">
-      <c r="B158" s="44" t="s">
+      <c r="B158" s="42" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="159" spans="2:7" ht="15">
-      <c r="B159" s="44" t="s">
+      <c r="B159" s="42" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="160" spans="2:7" ht="15">
-      <c r="B160" s="44" t="s">
+      <c r="B160" s="42" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="161" spans="2:2" ht="15">
-      <c r="B161" s="44" t="s">
+      <c r="B161" s="42" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="162" spans="2:2" ht="15">
-      <c r="B162" s="44" t="s">
+      <c r="B162" s="42" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="163" spans="2:2" ht="15">
-      <c r="B163" s="44" t="s">
+      <c r="B163" s="42" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="164" spans="2:2" ht="15">
-      <c r="B164" s="44" t="s">
+      <c r="B164" s="42" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="165" spans="2:2" ht="15">
-      <c r="B165" s="44" t="s">
+      <c r="B165" s="42" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="166" spans="2:2" ht="15">
-      <c r="B166" s="44" t="s">
+      <c r="B166" s="42" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="167" spans="2:2" ht="15">
-      <c r="B167" s="44" t="s">
+      <c r="B167" s="42" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="168" spans="2:2" ht="15">
-      <c r="B168" s="44" t="s">
+      <c r="B168" s="42" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="169" spans="2:2" ht="15">
-      <c r="B169" s="44" t="s">
+      <c r="B169" s="42" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="170" spans="2:2" ht="15">
-      <c r="B170" s="44" t="s">
+      <c r="B170" s="42" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="171" spans="2:2" ht="15">
-      <c r="B171" s="44" t="s">
+      <c r="B171" s="42" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="172" spans="2:2" ht="15">
-      <c r="B172" s="44" t="s">
+      <c r="B172" s="42" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="173" spans="2:2" ht="15">
-      <c r="B173" s="44"/>
+      <c r="B173" s="42"/>
     </row>
     <row r="174" spans="2:2" ht="15">
-      <c r="B174" s="44" t="s">
+      <c r="B174" s="42" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="175" spans="2:2" ht="15">
-      <c r="B175" s="44" t="s">
+      <c r="B175" s="42" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="176" spans="2:2" ht="15">
-      <c r="B176" s="44" t="s">
+      <c r="B176" s="42" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="177" spans="2:2" ht="15">
-      <c r="B177" s="44" t="s">
+      <c r="B177" s="42" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="178" spans="2:2" ht="15">
-      <c r="B178" s="44" t="s">
+      <c r="B178" s="42" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="179" spans="2:2" ht="15">
-      <c r="B179" s="44" t="s">
+      <c r="B179" s="42" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="45"/>
+      <c r="B180" s="43"/>
     </row>
     <row r="181" spans="2:2" ht="15">
-      <c r="B181" s="44" t="s">
+      <c r="B181" s="42" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="182" spans="2:2" ht="15">
-      <c r="B182" s="44" t="s">
+      <c r="B182" s="42" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="183" spans="2:2" ht="15">
-      <c r="B183" s="44" t="s">
+      <c r="B183" s="42" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="184" spans="2:2" ht="15">
-      <c r="B184" s="44" t="s">
+      <c r="B184" s="42" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="185" spans="2:2" ht="15">
-      <c r="B185" s="44" t="s">
+      <c r="B185" s="42" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="186" spans="2:2" ht="15">
-      <c r="B186" s="44" t="s">
+      <c r="B186" s="42" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="187" spans="2:2" ht="15">
-      <c r="B187" s="44" t="s">
+      <c r="B187" s="42" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="188" spans="2:2" ht="15">
-      <c r="B188" s="44" t="s">
+      <c r="B188" s="42" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="189" spans="2:2" ht="15">
-      <c r="B189" s="44" t="s">
+      <c r="B189" s="42" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="190" spans="2:2" ht="15">
-      <c r="B190" s="44" t="s">
+      <c r="B190" s="42" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="191" spans="2:2" ht="15">
-      <c r="B191" s="44" t="s">
+      <c r="B191" s="42" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="192" spans="2:2" ht="15">
-      <c r="B192" s="44" t="s">
+      <c r="B192" s="42" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="193" spans="2:6" ht="15">
-      <c r="B193" s="44" t="s">
+      <c r="B193" s="42" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="194" spans="2:6" ht="15">
-      <c r="B194" s="44" t="s">
+      <c r="B194" s="42" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="195" spans="2:6" ht="15">
-      <c r="B195" s="44" t="s">
+      <c r="B195" s="42" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="196" spans="2:6" ht="15">
-      <c r="B196" s="44" t="s">
+      <c r="B196" s="42" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="197" spans="2:6" ht="15">
-      <c r="B197" s="44" t="s">
+      <c r="B197" s="42" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="198" spans="2:6" ht="15">
-      <c r="B198" s="44" t="s">
+      <c r="B198" s="42" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="199" spans="2:6" ht="15">
-      <c r="B199" s="44" t="s">
+      <c r="B199" s="42" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="200" spans="2:6" ht="15">
-      <c r="B200" s="44" t="s">
+      <c r="B200" s="42" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="201" spans="2:6" ht="15">
-      <c r="B201" s="44" t="s">
+      <c r="B201" s="42" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="202" spans="2:6" ht="15">
-      <c r="B202" s="44" t="s">
+      <c r="B202" s="42" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="203" spans="2:6" ht="15">
-      <c r="B203" s="44" t="s">
+      <c r="B203" s="42" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="204" spans="2:6" ht="15">
-      <c r="B204" s="44" t="s">
+      <c r="B204" s="42" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="205" spans="2:6" ht="15">
-      <c r="B205" s="48" t="s">
+      <c r="B205" s="46" t="s">
         <v>405</v>
       </c>
-      <c r="C205" s="49"/>
-      <c r="D205" s="49"/>
-      <c r="E205" s="49"/>
-      <c r="F205" s="49"/>
+      <c r="C205" s="47"/>
+      <c r="D205" s="47"/>
+      <c r="E205" s="47"/>
+      <c r="F205" s="47"/>
     </row>
     <row r="206" spans="2:6" ht="15">
-      <c r="B206" s="44" t="s">
+      <c r="B206" s="42" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="207" spans="2:6" ht="15">
-      <c r="B207" s="44" t="s">
+      <c r="B207" s="42" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="208" spans="2:6" ht="15">
-      <c r="B208" s="44" t="s">
+      <c r="B208" s="42" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="209" spans="2:2" ht="15">
-      <c r="B209" s="44" t="s">
+      <c r="B209" s="42" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="210" spans="2:2" ht="15">
-      <c r="B210" s="44" t="s">
+      <c r="B210" s="42" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="211" spans="2:2" ht="15">
-      <c r="B211" s="44" t="s">
+      <c r="B211" s="42" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="212" spans="2:2" ht="15">
-      <c r="B212" s="44" t="s">
+      <c r="B212" s="42" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="213" spans="2:2" ht="15">
-      <c r="B213" s="44" t="s">
+      <c r="B213" s="42" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="214" spans="2:2" ht="15">
-      <c r="B214" s="44" t="s">
+      <c r="B214" s="42" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="215" spans="2:2" ht="15">
-      <c r="B215" s="42" t="s">
+      <c r="B215" s="40" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="216" spans="2:2" ht="15">
-      <c r="B216" s="44" t="s">
+      <c r="B216" s="42" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="217" spans="2:2" ht="15">
-      <c r="B217" s="44" t="s">
+      <c r="B217" s="42" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="218" spans="2:2" ht="15">
-      <c r="B218" s="44" t="s">
+      <c r="B218" s="42" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="219" spans="2:2" ht="15">
-      <c r="B219" s="44" t="s">
+      <c r="B219" s="42" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="220" spans="2:2" ht="15">
-      <c r="B220" s="44" t="s">
+      <c r="B220" s="42" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="221" spans="2:2" ht="15">
-      <c r="B221" s="44" t="s">
+      <c r="B221" s="42" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="222" spans="2:2" ht="15">
-      <c r="B222" s="44" t="s">
+      <c r="B222" s="42" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="223" spans="2:2" ht="15">
-      <c r="B223" s="44" t="s">
+      <c r="B223" s="42" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="224" spans="2:2" ht="15">
-      <c r="B224" s="44" t="s">
+      <c r="B224" s="42" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="225" spans="2:2" ht="15">
-      <c r="B225" s="44" t="s">
+      <c r="B225" s="42" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="226" spans="2:2" ht="15">
-      <c r="B226" s="44" t="s">
+      <c r="B226" s="42" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="227" spans="2:2" ht="15">
-      <c r="B227" s="44" t="s">
+      <c r="B227" s="42" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="228" spans="2:2" ht="15">
-      <c r="B228" s="44" t="s">
+      <c r="B228" s="42" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="229" spans="2:2" ht="15">
-      <c r="B229" s="44" t="s">
+      <c r="B229" s="42" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="230" spans="2:2" ht="15">
-      <c r="B230" s="44" t="s">
+      <c r="B230" s="42" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="231" spans="2:2" ht="15">
-      <c r="B231" s="44" t="s">
+      <c r="B231" s="42" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="232" spans="2:2" ht="15">
-      <c r="B232" s="44" t="s">
+      <c r="B232" s="42" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="233" spans="2:2" ht="15">
-      <c r="B233" s="44" t="s">
+      <c r="B233" s="42" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="234" spans="2:2" ht="15">
-      <c r="B234" s="44" t="s">
+      <c r="B234" s="42" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="235" spans="2:2" ht="15">
-      <c r="B235" s="44" t="s">
+      <c r="B235" s="42" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="236" spans="2:2" ht="15">
-      <c r="B236" s="44" t="s">
+      <c r="B236" s="42" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="237" spans="2:2" ht="15">
-      <c r="B237" s="44" t="s">
+      <c r="B237" s="42" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="238" spans="2:2" ht="15">
-      <c r="B238" s="44" t="s">
+      <c r="B238" s="42" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="239" spans="2:2" ht="15">
-      <c r="B239" s="44" t="s">
+      <c r="B239" s="42" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="240" spans="2:2" ht="15">
-      <c r="B240" s="44" t="s">
+      <c r="B240" s="42" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="241" spans="2:2" ht="15">
-      <c r="B241" s="44" t="s">
+      <c r="B241" s="42" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="242" spans="2:2" ht="15">
-      <c r="B242" s="44" t="s">
+      <c r="B242" s="42" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="243" spans="2:2" ht="15">
-      <c r="B243" s="44" t="s">
+      <c r="B243" s="42" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="244" spans="2:2" ht="15">
-      <c r="B244" s="44" t="s">
+      <c r="B244" s="42" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="245" spans="2:2" ht="15">
-      <c r="B245" s="44" t="s">
+      <c r="B245" s="42" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="246" spans="2:2" ht="15">
-      <c r="B246" s="44" t="s">
+      <c r="B246" s="42" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="247" spans="2:2" ht="15">
-      <c r="B247" s="44" t="s">
+      <c r="B247" s="42" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="248" spans="2:2" ht="15">
-      <c r="B248" s="44" t="s">
+      <c r="B248" s="42" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="249" spans="2:2" ht="15">
-      <c r="B249" s="44" t="s">
+      <c r="B249" s="42" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="250" spans="2:2" ht="15">
-      <c r="B250" s="44" t="s">
+      <c r="B250" s="42" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="251" spans="2:2" ht="15">
-      <c r="B251" s="44" t="s">
+      <c r="B251" s="42" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="252" spans="2:2" ht="15">
-      <c r="B252" s="44" t="s">
+      <c r="B252" s="42" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="253" spans="2:2" ht="15">
-      <c r="B253" s="44" t="s">
+      <c r="B253" s="42" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="254" spans="2:2" ht="15">
-      <c r="B254" s="44" t="s">
+      <c r="B254" s="42" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="255" spans="2:2" ht="15">
-      <c r="B255" s="44" t="s">
+      <c r="B255" s="42" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="256" spans="2:2" ht="15">
-      <c r="B256" s="44" t="s">
+      <c r="B256" s="42" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="257" spans="2:2" ht="15">
-      <c r="B257" s="44" t="s">
+      <c r="B257" s="42" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="258" spans="2:2" ht="15">
-      <c r="B258" s="44" t="s">
+      <c r="B258" s="42" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="259" spans="2:2" ht="15">
-      <c r="B259" s="44" t="s">
+      <c r="B259" s="42" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="260" spans="2:2" ht="15">
-      <c r="B260" s="44" t="s">
+      <c r="B260" s="42" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="261" spans="2:2" ht="15">
-      <c r="B261" s="44" t="s">
+      <c r="B261" s="42" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="262" spans="2:2" ht="15">
-      <c r="B262" s="44" t="s">
+      <c r="B262" s="42" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="263" spans="2:2" ht="15">
-      <c r="B263" s="44" t="s">
+      <c r="B263" s="42" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="264" spans="2:2" ht="15">
-      <c r="B264" s="44" t="s">
+      <c r="B264" s="42" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="265" spans="2:2" ht="15">
-      <c r="B265" s="44" t="s">
+      <c r="B265" s="42" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="266" spans="2:2" ht="15">
-      <c r="B266" s="44" t="s">
+      <c r="B266" s="42" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="267" spans="2:2" ht="15">
-      <c r="B267" s="44" t="s">
+      <c r="B267" s="42" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="268" spans="2:2" ht="15">
-      <c r="B268" s="44" t="s">
+      <c r="B268" s="42" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="269" spans="2:2" ht="15">
-      <c r="B269" s="44" t="s">
+      <c r="B269" s="42" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="270" spans="2:2" ht="15">
-      <c r="B270" s="44" t="s">
+      <c r="B270" s="42" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="271" spans="2:2" ht="15">
-      <c r="B271" s="44" t="s">
+      <c r="B271" s="42" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="272" spans="2:2" ht="15">
-      <c r="B272" s="44" t="s">
+      <c r="B272" s="42" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="273" spans="2:2" ht="15">
-      <c r="B273" s="44" t="s">
+      <c r="B273" s="42" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="274" spans="2:2" ht="15">
-      <c r="B274" s="44" t="s">
+      <c r="B274" s="42" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="275" spans="2:2" ht="15">
-      <c r="B275" s="44" t="s">
+      <c r="B275" s="42" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="276" spans="2:2" ht="15">
-      <c r="B276" s="44" t="s">
+      <c r="B276" s="42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="277" spans="2:2" ht="15">
-      <c r="B277" s="44" t="s">
+      <c r="B277" s="42" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="278" spans="2:2" ht="15">
-      <c r="B278" s="44" t="s">
+      <c r="B278" s="42" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="279" spans="2:2" ht="15">
-      <c r="B279" s="44" t="s">
+      <c r="B279" s="42" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="280" spans="2:2" ht="15">
-      <c r="B280" s="44" t="s">
+      <c r="B280" s="42" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="281" spans="2:2" ht="15">
-      <c r="B281" s="44" t="s">
+      <c r="B281" s="42" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="282" spans="2:2" ht="15">
-      <c r="B282" s="44" t="s">
+      <c r="B282" s="42" t="s">
         <v>398</v>
       </c>
     </row>

--- a/10_Java/学习笔记_开发工具_IDEA.xlsx
+++ b/10_Java/学习笔记_开发工具_IDEA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905DAEB5-52F4-4126-9552-18BD43C91E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFEEF86-1472-4902-B92F-5E963513159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="522">
   <si>
     <r>
       <rPr>
@@ -4094,6 +4094,14 @@
   </si>
   <si>
     <t>关于IDEA绿色版（解压即可用）的目录问题：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：尽量安装社区版，那样不用激活！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非社区版的激活说明：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4948,13 +4956,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>54495</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5009,13 +5017,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>382576</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5077,13 +5085,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>85</xdr:row>
       <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5138,13 +5146,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5199,13 +5207,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>93</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5260,13 +5268,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5328,13 +5336,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>96</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>194238</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5389,13 +5397,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>281940</xdr:colOff>
-      <xdr:row>119</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5457,13 +5465,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>367316</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>167</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5525,13 +5533,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>173</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5586,13 +5594,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>187</xdr:row>
+      <xdr:row>204</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5647,13 +5655,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>223</xdr:row>
+      <xdr:row>240</xdr:row>
       <xdr:rowOff>51173</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5708,13 +5716,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>209</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>237</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5769,13 +5777,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>137159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>162994</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5830,13 +5838,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>167639</xdr:colOff>
-      <xdr:row>178</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>31054</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5891,13 +5899,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>248</xdr:row>
       <xdr:rowOff>43802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>133349</xdr:colOff>
-      <xdr:row>265</xdr:row>
+      <xdr:row>282</xdr:row>
       <xdr:rowOff>147311</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5957,13 +5965,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>281</xdr:row>
+      <xdr:row>298</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:row>318</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6023,13 +6031,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>308</xdr:row>
+      <xdr:row>325</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>326</xdr:row>
+      <xdr:row>343</xdr:row>
       <xdr:rowOff>164141</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6089,13 +6097,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>419</xdr:row>
+      <xdr:row>436</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>439</xdr:row>
+      <xdr:row>456</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6155,13 +6163,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>349</xdr:row>
+      <xdr:row>366</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>374</xdr:row>
+      <xdr:row>391</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6221,13 +6229,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>351</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>381</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6287,13 +6295,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>380</xdr:row>
+      <xdr:row>397</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>405</xdr:row>
+      <xdr:row>422</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6353,13 +6361,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>386</xdr:row>
+      <xdr:row>403</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>397</xdr:row>
+      <xdr:row>414</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6419,13 +6427,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>448</xdr:row>
+      <xdr:row>465</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>474</xdr:row>
+      <xdr:row>491</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6485,13 +6493,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>418</xdr:row>
+      <xdr:row>435</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>463</xdr:row>
+      <xdr:row>480</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6551,13 +6559,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>623918</xdr:colOff>
-      <xdr:row>476</xdr:row>
+      <xdr:row>493</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>506</xdr:row>
+      <xdr:row>523</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -6609,6 +6617,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>467797</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>46804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9186DB3-5C35-DEDE-6994-93F0BA0AB9E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657224" y="600075"/>
+          <a:ext cx="5296973" cy="2704279"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -7336,10 +7388,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0E32CAE-FBCC-4352-9464-E261A9BE0AB6}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:Q83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView showGridLines="0" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="Q106" sqref="Q106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8148,687 +8203,697 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U447"/>
+  <dimension ref="A1:U464"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A490" workbookViewId="0">
-      <selection activeCell="B440" sqref="B440"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:2">
       <c r="B2" s="21" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="B4" s="22" t="s">
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="B21" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="C5" t="s">
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="18.75" thickBot="1">
-      <c r="B6" s="10" t="s">
+    <row r="23" spans="1:3" ht="18.75" thickBot="1">
+      <c r="B23" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18">
-      <c r="B7" s="14" t="s">
+    <row r="24" spans="1:3" ht="18">
+      <c r="B24" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="B8" s="23" t="s">
+    <row r="25" spans="1:3">
+      <c r="B25" s="23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="B9" s="23" t="s">
+    <row r="26" spans="1:3">
+      <c r="B26" s="23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="B10" s="23" t="s">
+    <row r="27" spans="1:3">
+      <c r="B27" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="18.75" thickBot="1">
-      <c r="B12" s="10" t="s">
+    <row r="29" spans="1:3" ht="18.75" thickBot="1">
+      <c r="B29" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="B13" t="s">
+    <row r="30" spans="1:3">
+      <c r="B30" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="B14" s="21" t="s">
+    <row r="31" spans="1:3">
+      <c r="B31" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="58" spans="2:2">
+      <c r="B58" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B42" s="10" t="s">
+    <row r="59" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B59" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B43" s="11" t="s">
+    <row r="60" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B60" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="24" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B46" s="11" t="s">
+    <row r="63" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B63" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B69" s="11" t="s">
+    <row r="86" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B86" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B70" s="11" t="s">
+    <row r="87" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B87" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B95" s="11" t="s">
+    <row r="112" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B112" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="96" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B96" s="11" t="s">
+    <row r="113" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B113" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="21"/>
-    </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="21"/>
-    </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="21"/>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="21"/>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="21"/>
-    </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="21"/>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="21"/>
-    </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="21"/>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="21"/>
-    </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="21"/>
-    </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="21"/>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="21"/>
-    </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="21"/>
-    </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="21"/>
-    </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="21"/>
-    </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="21"/>
-    </row>
-    <row r="122" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B122" s="11" t="s">
+    <row r="119" spans="2:2">
+      <c r="B119" s="21"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="21"/>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="21"/>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="21"/>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="21"/>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="21"/>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="21"/>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="21"/>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="21"/>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="21"/>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="21"/>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="21"/>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="21"/>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="21"/>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="21"/>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="21"/>
+    </row>
+    <row r="139" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B139" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B123" s="12" t="s">
+    <row r="140" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B140" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="124" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B124" s="13" t="s">
+    <row r="141" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B141" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="125" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B125" s="13" t="s">
+    <row r="142" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B142" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B126" s="10" t="s">
+    <row r="143" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B143" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B127" s="10" t="s">
+    <row r="144" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B144" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="2:2" ht="16.5">
-      <c r="B128" s="15"/>
-    </row>
-    <row r="129" spans="2:21" ht="16.5">
-      <c r="B129" s="15"/>
-    </row>
-    <row r="130" spans="2:21" ht="16.5">
-      <c r="B130" s="15"/>
-    </row>
-    <row r="131" spans="2:21" ht="16.5">
-      <c r="B131" s="15"/>
-    </row>
-    <row r="132" spans="2:21" ht="16.5">
-      <c r="B132" s="15"/>
-    </row>
-    <row r="133" spans="2:21" ht="16.5">
-      <c r="B133" s="15"/>
-    </row>
-    <row r="134" spans="2:21" ht="16.5">
-      <c r="B134" s="15"/>
-      <c r="P134" t="s">
+    <row r="145" spans="2:21" ht="16.5">
+      <c r="B145" s="15"/>
+    </row>
+    <row r="146" spans="2:21" ht="16.5">
+      <c r="B146" s="15"/>
+    </row>
+    <row r="147" spans="2:21" ht="16.5">
+      <c r="B147" s="15"/>
+    </row>
+    <row r="148" spans="2:21" ht="16.5">
+      <c r="B148" s="15"/>
+    </row>
+    <row r="149" spans="2:21" ht="16.5">
+      <c r="B149" s="15"/>
+    </row>
+    <row r="150" spans="2:21" ht="16.5">
+      <c r="B150" s="15"/>
+    </row>
+    <row r="151" spans="2:21" ht="16.5">
+      <c r="B151" s="15"/>
+      <c r="P151" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="135" spans="2:21" ht="16.5">
-      <c r="B135" s="15"/>
-      <c r="P135" s="17" t="s">
+    <row r="152" spans="2:21" ht="16.5">
+      <c r="B152" s="15"/>
+      <c r="P152" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="Q135" s="16"/>
-      <c r="R135" s="16"/>
-      <c r="S135" s="16"/>
-      <c r="T135" s="16"/>
-    </row>
-    <row r="136" spans="2:21" ht="16.5">
-      <c r="B136" s="15"/>
-    </row>
-    <row r="137" spans="2:21" ht="16.5">
-      <c r="B137" s="15"/>
-      <c r="P137" t="s">
+      <c r="Q152" s="16"/>
+      <c r="R152" s="16"/>
+      <c r="S152" s="16"/>
+      <c r="T152" s="16"/>
+    </row>
+    <row r="153" spans="2:21" ht="16.5">
+      <c r="B153" s="15"/>
+    </row>
+    <row r="154" spans="2:21" ht="16.5">
+      <c r="B154" s="15"/>
+      <c r="P154" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="138" spans="2:21" ht="16.5">
-      <c r="B138" s="15"/>
-      <c r="P138" s="17" t="s">
+    <row r="155" spans="2:21" ht="16.5">
+      <c r="B155" s="15"/>
+      <c r="P155" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="Q138" s="16"/>
-      <c r="R138" s="16"/>
-      <c r="S138" s="16"/>
-      <c r="T138" s="16"/>
-      <c r="U138" s="16"/>
-    </row>
-    <row r="139" spans="2:21" ht="16.5">
-      <c r="B139" s="15"/>
-      <c r="P139" t="s">
+      <c r="Q155" s="16"/>
+      <c r="R155" s="16"/>
+      <c r="S155" s="16"/>
+      <c r="T155" s="16"/>
+      <c r="U155" s="16"/>
+    </row>
+    <row r="156" spans="2:21" ht="16.5">
+      <c r="B156" s="15"/>
+      <c r="P156" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="2:21" ht="16.5">
-      <c r="B140" s="15"/>
-    </row>
-    <row r="141" spans="2:21" ht="16.5">
-      <c r="B141" s="15"/>
-    </row>
-    <row r="142" spans="2:21" ht="16.5">
-      <c r="B142" s="15"/>
-    </row>
-    <row r="143" spans="2:21" ht="16.5">
-      <c r="B143" s="15"/>
-    </row>
-    <row r="144" spans="2:21" ht="16.5">
-      <c r="B144" s="15"/>
-    </row>
-    <row r="145" spans="2:2" ht="16.5">
-      <c r="B145" s="15"/>
-    </row>
-    <row r="146" spans="2:2" ht="16.5">
-      <c r="B146" s="15"/>
-    </row>
-    <row r="147" spans="2:2" ht="16.5">
-      <c r="B147" s="15"/>
-    </row>
-    <row r="148" spans="2:2" ht="16.5">
-      <c r="B148" s="15"/>
-    </row>
-    <row r="149" spans="2:2" ht="16.5">
-      <c r="B149" s="15"/>
-    </row>
-    <row r="150" spans="2:2" ht="16.5">
-      <c r="B150" s="15"/>
-    </row>
-    <row r="153" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B153" s="11" t="s">
+    <row r="157" spans="2:21" ht="16.5">
+      <c r="B157" s="15"/>
+    </row>
+    <row r="158" spans="2:21" ht="16.5">
+      <c r="B158" s="15"/>
+    </row>
+    <row r="159" spans="2:21" ht="16.5">
+      <c r="B159" s="15"/>
+    </row>
+    <row r="160" spans="2:21" ht="16.5">
+      <c r="B160" s="15"/>
+    </row>
+    <row r="161" spans="2:2" ht="16.5">
+      <c r="B161" s="15"/>
+    </row>
+    <row r="162" spans="2:2" ht="16.5">
+      <c r="B162" s="15"/>
+    </row>
+    <row r="163" spans="2:2" ht="16.5">
+      <c r="B163" s="15"/>
+    </row>
+    <row r="164" spans="2:2" ht="16.5">
+      <c r="B164" s="15"/>
+    </row>
+    <row r="165" spans="2:2" ht="16.5">
+      <c r="B165" s="15"/>
+    </row>
+    <row r="166" spans="2:2" ht="16.5">
+      <c r="B166" s="15"/>
+    </row>
+    <row r="167" spans="2:2" ht="16.5">
+      <c r="B167" s="15"/>
+    </row>
+    <row r="170" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B170" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="177" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B177" s="11" t="s">
+    <row r="194" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B194" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="178" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B178" s="11" t="s">
+    <row r="195" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B195" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="2:2" ht="18.75" thickBot="1">
-      <c r="B189" s="10" t="s">
+    <row r="206" spans="2:2" ht="18.75" thickBot="1">
+      <c r="B206" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="190" spans="2:2">
-      <c r="B190" t="s">
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="191" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B191" s="11" t="s">
+    <row r="208" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B208" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="192" spans="2:2" ht="17.25" thickBot="1">
-      <c r="B192" s="11" t="s">
+    <row r="209" spans="2:2" ht="17.25" thickBot="1">
+      <c r="B209" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="25"/>
-    </row>
-    <row r="228" spans="1:2" ht="27.75">
-      <c r="A228" s="18" t="s">
+    <row r="212" spans="2:2">
+      <c r="B212" s="25"/>
+    </row>
+    <row r="245" spans="1:2" ht="27.75">
+      <c r="A245" s="18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="230" spans="1:2">
-      <c r="B230" t="s">
+    <row r="247" spans="1:2">
+      <c r="B247" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="231" spans="1:2">
-      <c r="B231" t="s">
+    <row r="248" spans="1:2">
+      <c r="B248" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="2:2" ht="18">
-      <c r="B267" s="26" t="s">
+    <row r="284" spans="2:2" ht="18">
+      <c r="B284" s="26" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="268" spans="2:2">
-      <c r="B268" t="s">
+    <row r="285" spans="2:2">
+      <c r="B285" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="269" spans="2:2" ht="16.5">
-      <c r="B269" s="19"/>
-    </row>
-    <row r="270" spans="2:2" ht="18">
-      <c r="B270" s="26" t="s">
+    <row r="286" spans="2:2" ht="16.5">
+      <c r="B286" s="19"/>
+    </row>
+    <row r="287" spans="2:2" ht="18">
+      <c r="B287" s="26" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="271" spans="2:2" ht="24.75" thickBot="1">
-      <c r="B271" s="20" t="s">
+    <row r="288" spans="2:2" ht="24.75" thickBot="1">
+      <c r="B288" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="272" spans="2:2">
-      <c r="B272" t="s">
+    <row r="289" spans="2:2">
+      <c r="B289" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="273" spans="2:2" ht="16.5">
-      <c r="B273" t="s">
+    <row r="290" spans="2:2" ht="16.5">
+      <c r="B290" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="274" spans="2:2">
-      <c r="B274" t="s">
+    <row r="291" spans="2:2">
+      <c r="B291" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="275" spans="2:2">
-      <c r="B275" t="s">
+    <row r="292" spans="2:2">
+      <c r="B292" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="276" spans="2:2" ht="18">
-      <c r="B276" s="26" t="s">
+    <row r="293" spans="2:2" ht="18">
+      <c r="B293" s="26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="277" spans="2:2">
-      <c r="B277" t="s">
+    <row r="294" spans="2:2">
+      <c r="B294" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="278" spans="2:2">
-      <c r="B278" t="s">
+    <row r="295" spans="2:2">
+      <c r="B295" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="279" spans="2:2" ht="18">
-      <c r="B279" s="26" t="s">
+    <row r="296" spans="2:2" ht="18">
+      <c r="B296" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="280" spans="2:2">
-      <c r="B280" t="s">
+    <row r="297" spans="2:2">
+      <c r="B297" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="281" spans="2:2" ht="25.5">
-      <c r="B281" t="s">
+    <row r="298" spans="2:2" ht="25.5">
+      <c r="B298" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="302" spans="2:2" ht="16.5">
-      <c r="B302" s="19"/>
-    </row>
-    <row r="303" spans="2:2">
-      <c r="B303" t="s">
+    <row r="319" spans="2:2" ht="16.5">
+      <c r="B319" s="19"/>
+    </row>
+    <row r="320" spans="2:2">
+      <c r="B320" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="304" spans="2:2" ht="18">
-      <c r="B304" s="26" t="s">
+    <row r="321" spans="2:2" ht="18">
+      <c r="B321" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="305" spans="2:2">
-      <c r="B305" t="s">
+    <row r="322" spans="2:2">
+      <c r="B322" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="306" spans="2:2">
-      <c r="B306" t="s">
+    <row r="323" spans="2:2">
+      <c r="B323" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="307" spans="2:2">
-      <c r="B307" t="s">
+    <row r="324" spans="2:2">
+      <c r="B324" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="308" spans="2:2">
-      <c r="B308" t="s">
+    <row r="325" spans="2:2">
+      <c r="B325" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="328" spans="2:2">
-      <c r="B328" t="s">
+    <row r="345" spans="2:2">
+      <c r="B345" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="329" spans="2:2" ht="18">
-      <c r="B329" s="26" t="s">
+    <row r="346" spans="2:2" ht="18">
+      <c r="B346" s="26" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="330" spans="2:2" ht="24">
-      <c r="B330" t="s">
+    <row r="347" spans="2:2" ht="24">
+      <c r="B347" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="332" spans="2:2" ht="18">
-      <c r="B332" s="26" t="s">
+    <row r="349" spans="2:2" ht="18">
+      <c r="B349" s="26" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="333" spans="2:2">
-      <c r="B333" t="s">
+    <row r="350" spans="2:2">
+      <c r="B350" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="334" spans="2:2">
-      <c r="B334" t="s">
+    <row r="351" spans="2:2">
+      <c r="B351" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="336" spans="2:2" ht="18">
-      <c r="B336" s="26" t="s">
+    <row r="353" spans="2:8" ht="18">
+      <c r="B353" s="26" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="337" spans="2:8">
-      <c r="B337" t="s">
+    <row r="354" spans="2:8">
+      <c r="B354" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="338" spans="2:8">
-      <c r="B338" t="s">
+    <row r="355" spans="2:8">
+      <c r="B355" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="339" spans="2:8">
-      <c r="B339" t="s">
+    <row r="356" spans="2:8">
+      <c r="B356" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="340" spans="2:8">
-      <c r="B340" t="s">
+    <row r="357" spans="2:8">
+      <c r="B357" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="341" spans="2:8">
-      <c r="B341" s="27" t="s">
+    <row r="358" spans="2:8">
+      <c r="B358" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="C341" s="27"/>
-      <c r="D341" s="27"/>
-      <c r="E341" s="27"/>
-      <c r="F341" s="27"/>
-      <c r="G341" s="27"/>
-      <c r="H341" s="27"/>
-    </row>
-    <row r="342" spans="2:8">
-      <c r="B342" t="s">
+      <c r="C358" s="27"/>
+      <c r="D358" s="27"/>
+      <c r="E358" s="27"/>
+      <c r="F358" s="27"/>
+      <c r="G358" s="27"/>
+      <c r="H358" s="27"/>
+    </row>
+    <row r="359" spans="2:8">
+      <c r="B359" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="343" spans="2:8" ht="18">
-      <c r="B343" s="26" t="s">
+    <row r="360" spans="2:8" ht="18">
+      <c r="B360" s="26" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="344" spans="2:8">
-      <c r="B344" s="23" t="s">
+    <row r="361" spans="2:8">
+      <c r="B361" s="23" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="345" spans="2:8">
-      <c r="B345" t="s">
+    <row r="362" spans="2:8">
+      <c r="B362" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="346" spans="2:8">
-      <c r="B346" t="s">
+    <row r="363" spans="2:8">
+      <c r="B363" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="347" spans="2:8" ht="16.5">
-      <c r="B347" t="s">
+    <row r="364" spans="2:8" ht="16.5">
+      <c r="B364" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="348" spans="2:8">
-      <c r="B348" t="s">
+    <row r="365" spans="2:8">
+      <c r="B365" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="349" spans="2:8" ht="16.5">
-      <c r="B349" t="s">
+    <row r="366" spans="2:8" ht="16.5">
+      <c r="B366" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="350" spans="2:8">
-      <c r="B350" t="s">
+    <row r="367" spans="2:8">
+      <c r="B367" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="371" spans="2:2">
-      <c r="B371" s="23" t="s">
+    <row r="388" spans="2:2">
+      <c r="B388" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="372" spans="2:2">
-      <c r="B372" t="s">
+    <row r="389" spans="2:2">
+      <c r="B389" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="373" spans="2:2">
-      <c r="B373" t="s">
+    <row r="390" spans="2:2">
+      <c r="B390" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="374" spans="2:2">
-      <c r="B374" t="s">
+    <row r="391" spans="2:2">
+      <c r="B391" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="375" spans="2:2" ht="16.5">
-      <c r="B375" t="s">
+    <row r="392" spans="2:2" ht="16.5">
+      <c r="B392" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="376" spans="2:2" ht="16.5">
-      <c r="B376" t="s">
+    <row r="393" spans="2:2" ht="16.5">
+      <c r="B393" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="377" spans="2:2">
-      <c r="B377" t="s">
+    <row r="394" spans="2:2">
+      <c r="B394" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="379" spans="2:2">
-      <c r="B379" t="s">
+    <row r="396" spans="2:2">
+      <c r="B396" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="380" spans="2:2">
-      <c r="B380" t="s">
+    <row r="397" spans="2:2">
+      <c r="B397" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="407" spans="2:2">
-      <c r="B407" t="s">
+    <row r="424" spans="2:2">
+      <c r="B424" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="408" spans="2:2">
-      <c r="B408" t="s">
+    <row r="425" spans="2:2">
+      <c r="B425" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="409" spans="2:2">
-      <c r="B409" t="s">
+    <row r="426" spans="2:2">
+      <c r="B426" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="410" spans="2:2">
-      <c r="B410" t="s">
+    <row r="427" spans="2:2">
+      <c r="B427" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="412" spans="2:2">
-      <c r="B412" s="23" t="s">
+    <row r="429" spans="2:2">
+      <c r="B429" s="23" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="413" spans="2:2">
-      <c r="B413" t="s">
+    <row r="430" spans="2:2">
+      <c r="B430" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="414" spans="2:2">
-      <c r="B414" t="s">
+    <row r="431" spans="2:2">
+      <c r="B431" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="415" spans="2:2">
-      <c r="B415" t="s">
+    <row r="432" spans="2:2">
+      <c r="B432" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="417" spans="2:2">
-      <c r="B417" t="s">
+    <row r="434" spans="2:2">
+      <c r="B434" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="418" spans="2:2">
-      <c r="B418" t="s">
+    <row r="435" spans="2:2">
+      <c r="B435" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="440" spans="2:2">
-      <c r="B440" s="23" t="s">
+    <row r="457" spans="2:2">
+      <c r="B457" s="23" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="441" spans="2:2">
-      <c r="B441" t="s">
+    <row r="458" spans="2:2">
+      <c r="B458" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="442" spans="2:2" ht="25.5">
-      <c r="B442" t="s">
+    <row r="459" spans="2:2" ht="25.5">
+      <c r="B459" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="443" spans="2:2" ht="16.5">
-      <c r="B443" t="s">
+    <row r="460" spans="2:2" ht="16.5">
+      <c r="B460" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="445" spans="2:2">
-      <c r="B445" t="s">
+    <row r="462" spans="2:2">
+      <c r="B462" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="446" spans="2:2">
-      <c r="B446" t="s">
+    <row r="463" spans="2:2">
+      <c r="B463" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="447" spans="2:2">
-      <c r="B447" t="s">
+    <row r="464" spans="2:2">
+      <c r="B464" t="s">
         <v>105</v>
       </c>
     </row>
@@ -8836,11 +8901,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="P138" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="P135" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B278" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="B280" r:id="rId6" display="https://pan.baidu.com/s/1RidzxozMkYaBnNq7FiQBSg" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="P155" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="P152" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B295" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="B297" r:id="rId6" display="https://pan.baidu.com/s/1RidzxozMkYaBnNq7FiQBSg" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId7"/>
@@ -9326,7 +9391,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
